--- a/1 - No code/docs/Analisys_match_nba.xlsx
+++ b/1 - No code/docs/Analisys_match_nba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PycharmProjects\nba\1 - No code\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA6B34E-AABA-4074-9461-C7058C28EDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EFE245-B674-40CF-92D3-AD8903EEA5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{551C4716-7C71-4BA4-91AC-0CDE482C7BD1}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Nymburk - Opava" sheetId="3" r:id="rId1"/>
     <sheet name="Hoja1 (2)" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja2 (2)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
   <si>
     <t>q1</t>
   </si>
@@ -103,41 +104,74 @@
     <t>De visitante</t>
   </si>
   <si>
-    <t>Marca más de _ _ puntos en el Q_1</t>
-  </si>
-  <si>
-    <t>Marca más de _ _ puntos en el Q_2</t>
-  </si>
-  <si>
-    <t>Marca más de _ _ puntos en el Q_3</t>
-  </si>
-  <si>
-    <t>Su media esta:</t>
-  </si>
-  <si>
-    <t>Abajo_AVG: (↓AVG)</t>
-  </si>
-  <si>
-    <t>igual_AVG: (→AVG)</t>
-  </si>
-  <si>
-    <t>Arriba_AVG:(↑AVG)</t>
-  </si>
-  <si>
-    <t>El equipo supera su media del Q_4</t>
-  </si>
-  <si>
     <t>Va perdiendo por _ _ puntos al finalizar el Q_3</t>
   </si>
   <si>
     <t>Va ganando por _ _ puntos al finalizar el Q_3</t>
+  </si>
+  <si>
+    <t>Alcanza o supera un avg_q_1 (home o away) de:</t>
+  </si>
+  <si>
+    <t>Alcanza o supera un avg_q_2 (home o away) de:</t>
+  </si>
+  <si>
+    <t>Alcanza o supera un avg_q_3 (home o away) de:</t>
+  </si>
+  <si>
+    <t>El equipo supera su media historica  del Q_4, cuando al minuto 5 del q_4 del partido actual:</t>
+  </si>
+  <si>
+    <t>Su media del 4to cuarto avg_q_4 del partido actual (home o away) esta:</t>
+  </si>
+  <si>
+    <t>Abajo_AVG: (↓avg_gral_[h or a])</t>
+  </si>
+  <si>
+    <t>Arriba_AVG:(↑avg_gral_[h or a])</t>
+  </si>
+  <si>
+    <t>Abajo_AVG: (↓avg_q4_[h or a])</t>
+  </si>
+  <si>
+    <t>Arriba_AVG:(↑avg_q4_[h or a])</t>
+  </si>
+  <si>
+    <t>Igual_AVG: (→avg_q4_[h or a])</t>
+  </si>
+  <si>
+    <t>Igual_AVG: (→avg_gral_[h or a])</t>
+  </si>
+  <si>
+    <t>Abajo_MDN: (↓mdn_gral_[h or a])</t>
+  </si>
+  <si>
+    <t>Igual_MDN: (→mdn_gral_[h or a])</t>
+  </si>
+  <si>
+    <t>Arriba_MDN:(↑mdn_gral_[h or a])</t>
+  </si>
+  <si>
+    <t>Su media total comprendida entre q_1 a q_3 del aprtido actual (home o away) esta:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Su mediana total comprendida entre q_1 a q_3 del aprtido actual (home o away) esta: </t>
+  </si>
+  <si>
+    <t>Su media total comprendida entre q_1 a q_3 de un partido específico (home o away) esta:</t>
+  </si>
+  <si>
+    <t>Su media del 4to cuarto avg_q_4 de un partido específico (home o away) esta:</t>
+  </si>
+  <si>
+    <t>Su mediana … esta:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +228,12 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1835,7 +1875,7 @@
   <dimension ref="B2:R46"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,13 +1921,13 @@
         <v>30</v>
       </c>
       <c r="N2" s="15">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O2" s="15">
         <v>1</v>
       </c>
       <c r="P2" s="15">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
@@ -1914,7 +1954,7 @@
         <v>19.13</v>
       </c>
       <c r="N3" s="15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O3" s="15">
         <v>2</v>
@@ -1957,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="15">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
@@ -1991,13 +2031,13 @@
         <v>76</v>
       </c>
       <c r="N5" s="15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O5" s="15">
         <v>4</v>
       </c>
       <c r="P5" s="15">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
@@ -2026,26 +2066,26 @@
       </c>
       <c r="J6" s="5"/>
       <c r="N6" s="15">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O6" s="15">
         <v>5</v>
       </c>
       <c r="P6" s="15">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H7" s="13"/>
       <c r="J7" s="5"/>
       <c r="N7" s="15">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O7" s="15">
         <v>6</v>
       </c>
       <c r="P7" s="15">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
@@ -2072,14 +2112,12 @@
       </c>
       <c r="J8" s="5"/>
       <c r="N8" s="15">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="O8" s="15">
         <v>7</v>
       </c>
-      <c r="P8" s="15">
-        <v>17</v>
-      </c>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
@@ -2108,14 +2146,12 @@
       <c r="L9" s="17"/>
       <c r="M9" s="16"/>
       <c r="N9" s="15">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O9" s="15">
         <v>8</v>
       </c>
-      <c r="P9" s="15">
-        <v>18</v>
-      </c>
+      <c r="P9" s="15"/>
       <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -2149,14 +2185,12 @@
       <c r="L10" s="17"/>
       <c r="M10" s="16"/>
       <c r="N10" s="15">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O10" s="15">
         <v>9</v>
       </c>
-      <c r="P10" s="15">
-        <v>19</v>
-      </c>
+      <c r="P10" s="15"/>
       <c r="R10" s="19"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
@@ -2189,15 +2223,11 @@
         <f>D11+E11+F11+H11</f>
         <v>92</v>
       </c>
-      <c r="N11" s="15">
-        <v>23</v>
-      </c>
+      <c r="N11" s="15"/>
       <c r="O11" s="15">
         <v>10</v>
       </c>
-      <c r="P11" s="15">
-        <v>22</v>
-      </c>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
@@ -2223,15 +2253,11 @@
         <f>H11/L2</f>
         <v>1.6</v>
       </c>
-      <c r="N12" s="15">
-        <v>23</v>
-      </c>
+      <c r="N12" s="15"/>
       <c r="O12" s="15">
         <v>11</v>
       </c>
-      <c r="P12" s="15">
-        <v>23</v>
-      </c>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H13" s="13"/>
@@ -2239,15 +2265,11 @@
         <f>J5+J11</f>
         <v>168</v>
       </c>
-      <c r="N13" s="15">
-        <v>25</v>
-      </c>
+      <c r="N13" s="15"/>
       <c r="O13" s="15">
         <v>12</v>
       </c>
-      <c r="P13" s="15">
-        <v>23</v>
-      </c>
+      <c r="P13" s="15"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
@@ -2273,50 +2295,38 @@
         <f t="shared" ref="H14" si="0">H6+H12</f>
         <v>3.5</v>
       </c>
-      <c r="N14" s="15">
-        <v>28</v>
-      </c>
+      <c r="N14" s="15"/>
       <c r="O14" s="15">
         <v>13</v>
       </c>
-      <c r="P14" s="15">
-        <v>23</v>
-      </c>
+      <c r="P14" s="15"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H15" s="13"/>
-      <c r="N15" s="15">
-        <v>28</v>
-      </c>
+      <c r="N15" s="15"/>
       <c r="O15" s="15">
         <v>14</v>
       </c>
-      <c r="P15" s="15">
-        <v>27</v>
-      </c>
+      <c r="P15" s="15"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="N16" s="15">
-        <v>29</v>
-      </c>
+      <c r="N16" s="15"/>
       <c r="O16" s="15">
         <v>15</v>
       </c>
-      <c r="P16" s="15">
-        <v>31</v>
-      </c>
+      <c r="P16" s="15"/>
     </row>
     <row r="17" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F17" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="6">
-        <f>AVERAGE(N2:N16)</f>
-        <v>22.133333333333333</v>
+        <f>AVERAGE(N2:N10)</f>
+        <v>21.777777777777779</v>
       </c>
       <c r="H17" s="6">
-        <f>AVERAGE(P2:P16)</f>
-        <v>19.133333333333333</v>
+        <f>AVERAGE(P2:P7)</f>
+        <v>18.833333333333332</v>
       </c>
       <c r="N17" s="15"/>
       <c r="O17" s="15">
@@ -2329,12 +2339,12 @@
         <v>15</v>
       </c>
       <c r="G18" s="6">
-        <f>MEDIAN(N2:N16)</f>
-        <v>22</v>
+        <f>MEDIAN(N2:N10)</f>
+        <v>19</v>
       </c>
       <c r="H18" s="6">
-        <f>MEDIAN(P2:P16)</f>
-        <v>18</v>
+        <f>MEDIAN(P2:P7)</f>
+        <v>19</v>
       </c>
       <c r="N18" s="15"/>
       <c r="O18" s="15">
@@ -2348,11 +2358,11 @@
       </c>
       <c r="G19" s="6">
         <f>G17-N2</f>
-        <v>4.1333333333333329</v>
+        <v>8.7777777777777786</v>
       </c>
       <c r="H19" s="6">
         <f>H17-P2</f>
-        <v>9.1333333333333329</v>
+        <v>6.8333333333333321</v>
       </c>
       <c r="N19" s="15"/>
       <c r="O19" s="15">
@@ -2365,12 +2375,12 @@
         <v>16</v>
       </c>
       <c r="G20" s="6">
-        <f>N16-G17</f>
-        <v>6.8666666666666671</v>
+        <f>N10-G17</f>
+        <v>9.2222222222222214</v>
       </c>
       <c r="H20" s="6">
-        <f>P16-H17</f>
-        <v>11.866666666666667</v>
+        <f>P7-H17</f>
+        <v>10.166666666666668</v>
       </c>
       <c r="N20" s="15"/>
       <c r="O20" s="15">
@@ -2666,85 +2676,235 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD256CD-DBCA-466D-A137-64BCA21F8F29}">
-  <dimension ref="B3:I8"/>
+  <dimension ref="B3:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="26" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="26" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="21" style="25" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="25" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="25"/>
+    <col min="4" max="4" width="36.85546875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="26" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="21" style="25" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="26" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="25"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" s="30" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="29"/>
-      <c r="D3" s="31" t="s">
-        <v>24</v>
+      <c r="D3" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="28"/>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="28"/>
-      <c r="E5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9438E770-9047-4823-9684-2F1BC6535F1A}">
+  <dimension ref="B3:K8"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="26" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="21" style="25" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="26" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" s="30" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29"/>
+      <c r="D3" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="32" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D7" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D8" s="28" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/1 - No code/docs/Analisys_match_nba.xlsx
+++ b/1 - No code/docs/Analisys_match_nba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PycharmProjects\nba\1 - No code\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F414F57-9CB2-4E04-98E4-8A8D3C8BD89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE59877-4518-4312-8487-CA627673CA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="772" firstSheet="4" activeTab="10" xr2:uid="{551C4716-7C71-4BA4-91AC-0CDE482C7BD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="772" firstSheet="3" activeTab="3" xr2:uid="{551C4716-7C71-4BA4-91AC-0CDE482C7BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Nymburk - Opava" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Hoja3" sheetId="7" r:id="rId7"/>
     <sheet name="Hoja3 (2)" sheetId="9" r:id="rId8"/>
     <sheet name="Hoja4" sheetId="8" r:id="rId9"/>
-    <sheet name="Hoja13" sheetId="28" r:id="rId10"/>
+    <sheet name="Hoja1" sheetId="29" r:id="rId10"/>
     <sheet name="Hoja6" sheetId="21" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="107">
   <si>
     <t>q1</t>
   </si>
@@ -379,7 +379,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -641,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,9 +810,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -820,9 +817,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -841,17 +835,6 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,7 +846,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -895,30 +878,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -927,6 +907,14 @@
     </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11443,8 +11431,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.7545931758530182E-2"/>
-                  <c:y val="-0.30778652668416445"/>
+                  <c:x val="-0.18041032370953625"/>
+                  <c:y val="-0.11365959463400409"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -11478,7 +11466,7 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja6!$B$23:$B$38</c:f>
+              <c:f>Hoja6!$D$23:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -11617,8 +11605,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.7545931758530182E-2"/>
-                  <c:y val="-0.2771839457567804"/>
+                  <c:x val="-0.16172965879265092"/>
+                  <c:y val="-4.1979804607757361E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -11852,6 +11840,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4444444444444446E-2"/>
+          <c:y val="0.89872630504520268"/>
+          <c:w val="0.9"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11914,6 +11912,892 @@
     </a:gradFill>
     <a:ln>
       <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja6!$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG_MATCH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja6!$E$23:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.766667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0666669999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.233333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.266667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0666669999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4333330000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja6!$F$23:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F98-48AC-8F2D-A502DD20DBF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1846322095"/>
+        <c:axId val="1846324015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1846322095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1846324015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1846324015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1846322095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja6!$C$23:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6667000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13333300000000012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3666669999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53333299999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46666699999999983</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43333299999999986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43333299999999986</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56666699999999992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59999999999999976</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3666669999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.73333300000000012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja6!$D$23:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3684210526315838E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21052631578947359</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24210526315789468</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24210526315789468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28421052631578941</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3473684210526316</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36842105263157898</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36842105263157898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36842105263157898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.47368421052631587</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50526315789473675</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5473684210526315</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84210526315789436</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E39-42F1-AC00-89382B4F9C87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="636750559"/>
+        <c:axId val="636746239"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="636750559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636746239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="636746239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636750559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -17017,6 +17901,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -26328,6 +27292,1082 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -30759,15 +32799,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30787,6 +32827,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E639DFF1-7AC8-B58C-8388-4478FF0F58E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8075B92-5C36-56BB-5713-DA8C1F771684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -31955,16 +34067,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADEBA18-FA67-45DF-9999-E7F8D719F8C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68131BBD-F091-4117-A0E1-79065B2AE4EA}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -31974,48 +34090,48 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="77"/>
+      <c r="B3" s="103"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="100">
         <v>0.89709818687129494</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="100">
         <v>0.80478515688776475</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="74">
+      <c r="B6" s="100">
         <v>0.7908412395226051</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="74">
+      <c r="B7" s="100">
         <v>0.11807108021760662</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B8" s="101">
         <v>16</v>
       </c>
     </row>
@@ -32025,156 +34141,156 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76" t="s">
+      <c r="A11" s="102"/>
+      <c r="B11" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="102" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="74">
+      <c r="B12" s="100">
         <v>1</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="100">
         <v>0.8046040802274651</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="100">
         <v>0.8046040802274651</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="100">
         <v>57.715858163259419</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="100">
         <v>2.4859801531754967E-6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="74">
+      <c r="B13" s="100">
         <v>14</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="100">
         <v>0.19517091977253498</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="100">
         <v>1.3940779983752498E-2</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="75">
+      <c r="B14" s="101">
         <v>15</v>
       </c>
-      <c r="C14" s="75">
+      <c r="C14" s="101">
         <v>0.99977500000000008</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
-      <c r="B16" s="76" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="76" t="s">
+      <c r="F16" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="76" t="s">
+      <c r="G16" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="76" t="s">
+      <c r="H16" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="76" t="s">
+      <c r="I16" s="102" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="74">
+      <c r="B17" s="100">
         <v>0.21295899754590875</v>
       </c>
-      <c r="C17" s="74">
+      <c r="C17" s="100">
         <v>0.24997415913697918</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="100">
         <v>0.85192404799414845</v>
       </c>
-      <c r="E17" s="74">
+      <c r="E17" s="100">
         <v>0.40859342573056501</v>
       </c>
-      <c r="F17" s="74">
+      <c r="F17" s="100">
         <v>-0.32318225129453093</v>
       </c>
-      <c r="G17" s="74">
+      <c r="G17" s="100">
         <v>0.74910024638634842</v>
       </c>
-      <c r="H17" s="74">
+      <c r="H17" s="100">
         <v>-0.32318225129453093</v>
       </c>
-      <c r="I17" s="74">
+      <c r="I17" s="100">
         <v>0.74910024638634842</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="75">
+      <c r="B18" s="101">
         <v>0.89799571545432932</v>
       </c>
-      <c r="C18" s="75">
+      <c r="C18" s="101">
         <v>0.11820250647423927</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="101">
         <v>7.5970953767383609</v>
       </c>
-      <c r="E18" s="75">
+      <c r="E18" s="101">
         <v>2.4859801531755055E-6</v>
       </c>
-      <c r="F18" s="75">
+      <c r="F18" s="101">
         <v>0.64447655308986285</v>
       </c>
-      <c r="G18" s="75">
+      <c r="G18" s="101">
         <v>1.1515148778187958</v>
       </c>
-      <c r="H18" s="75">
+      <c r="H18" s="101">
         <v>0.64447655308986285</v>
       </c>
-      <c r="I18" s="75">
+      <c r="I18" s="101">
         <v>1.1515148778187958</v>
       </c>
     </row>
@@ -32185,194 +34301,195 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="102" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="74">
+      <c r="A25" s="100">
         <v>1</v>
       </c>
-      <c r="B25" s="74">
+      <c r="B25" s="100">
         <v>1.7395517138182686</v>
       </c>
-      <c r="C25" s="74">
+      <c r="C25" s="100">
         <v>1.0448286181731437E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="74">
+      <c r="A26" s="100">
         <v>2</v>
       </c>
-      <c r="B26" s="74">
+      <c r="B26" s="100">
         <v>1.7994183941804625</v>
       </c>
-      <c r="C26" s="74">
+      <c r="C26" s="100">
         <v>-4.9418394180462455E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="74">
+      <c r="A27" s="100">
         <v>3</v>
       </c>
-      <c r="B27" s="74">
+      <c r="B27" s="100">
         <v>1.8592841765469408</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="100">
         <v>-3.9284176546940719E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="74">
+      <c r="A28" s="100">
         <v>4</v>
       </c>
-      <c r="B28" s="74">
+      <c r="B28" s="100">
         <v>2.0089504284545674</v>
       </c>
-      <c r="C28" s="74">
+      <c r="C28" s="100">
         <v>-5.8950428454567438E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="74">
+      <c r="A29" s="100">
         <v>5</v>
       </c>
-      <c r="B29" s="74">
+      <c r="B29" s="100">
         <v>2.0688171088167611</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="100">
         <v>-8.8817108816761081E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="74">
+      <c r="A30" s="100">
         <v>6</v>
       </c>
-      <c r="B30" s="74">
+      <c r="B30" s="100">
         <v>2.2184824627286721</v>
       </c>
-      <c r="C30" s="74">
+      <c r="C30" s="100">
         <v>-0.23848246272867213</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="74">
+      <c r="A31" s="100">
         <v>7</v>
       </c>
-      <c r="B31" s="74">
+      <c r="B31" s="100">
         <v>1.9191508569091345</v>
       </c>
-      <c r="C31" s="74">
+      <c r="C31" s="100">
         <v>0.10084914309086557</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="74">
+      <c r="A32" s="100">
         <v>8</v>
       </c>
-      <c r="B32" s="74">
+      <c r="B32" s="100">
         <v>2.158616680362194</v>
       </c>
-      <c r="C32" s="74">
+      <c r="C32" s="100">
         <v>-7.8616680362193936E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="74">
+      <c r="A33" s="100">
         <v>9</v>
       </c>
-      <c r="B33" s="74">
+      <c r="B33" s="100">
         <v>2.1286828911832396</v>
       </c>
-      <c r="C33" s="74">
+      <c r="C33" s="100">
         <v>-2.8682891183239523E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="74">
+      <c r="A34" s="100">
         <v>10</v>
       </c>
-      <c r="B34" s="74">
+      <c r="B34" s="100">
         <v>2.1286828911832396</v>
       </c>
-      <c r="C34" s="74">
+      <c r="C34" s="100">
         <v>-2.8682891183239523E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="74">
+      <c r="A35" s="100">
         <v>11</v>
       </c>
-      <c r="B35" s="74">
+      <c r="B35" s="100">
         <v>1.9191508569091345</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="100">
         <v>0.18084914309086564</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="74">
+      <c r="A36" s="100">
         <v>12</v>
       </c>
-      <c r="B36" s="74">
+      <c r="B36" s="100">
         <v>2.248416251907627</v>
       </c>
-      <c r="C36" s="74">
+      <c r="C36" s="100">
         <v>-4.8416251907626773E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="74">
+      <c r="A37" s="100">
         <v>13</v>
       </c>
-      <c r="B37" s="74">
+      <c r="B37" s="100">
         <v>2.2783491430908658</v>
       </c>
-      <c r="C37" s="74">
+      <c r="C37" s="100">
         <v>-4.8349143090865798E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="74">
+      <c r="A38" s="100">
         <v>14</v>
       </c>
-      <c r="B38" s="74">
+      <c r="B38" s="100">
         <v>2.0688171088167611</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="100">
         <v>0.20118289118323895</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="74">
+      <c r="A39" s="100">
         <v>15</v>
       </c>
-      <c r="B39" s="74">
+      <c r="B39" s="100">
         <v>2.3980816058195389</v>
       </c>
-      <c r="C39" s="74">
+      <c r="C39" s="100">
         <v>0.15191839418046094</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="75">
+      <c r="A40" s="101">
         <v>16</v>
       </c>
-      <c r="B40" s="75">
+      <c r="B40" s="101">
         <v>2.6375474292725984</v>
       </c>
-      <c r="C40" s="75">
+      <c r="C40" s="101">
         <v>6.2452570727401735E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32380,8 +34497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CBBA55-E3A8-4374-9808-328CE78CFFA5}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F38"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32409,7 +34526,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="34">
-        <f>(E2-MIN($E$2:$E$17))/(MAX($E$2:$E$17)-MIN($E$2:$E$17))</f>
+        <f t="shared" ref="C2:C17" si="0">(E2-MIN($E$2:$E$17))/(MAX($E$2:$E$17)-MIN($E$2:$E$17))</f>
         <v>0</v>
       </c>
       <c r="D2" s="34">
@@ -32424,11 +34541,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="34">
-        <f t="shared" ref="B3:B17" si="0">(D3-MIN($D$2:$D$17))/(MAX($D$2:$D$17)-MIN($D$2:$D$17))</f>
+        <f t="shared" ref="B3:B17" si="1">(D3-MIN($D$2:$D$17))/(MAX($D$2:$D$17)-MIN($D$2:$D$17))</f>
         <v>0</v>
       </c>
       <c r="C3" s="34">
-        <f>(E3-MIN($E$2:$E$17))/(MAX($E$2:$E$17)-MIN($E$2:$E$17))</f>
+        <f t="shared" si="0"/>
         <v>0.34042553191489361</v>
       </c>
       <c r="D3" s="34">
@@ -32443,11 +34560,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="34">
+        <f t="shared" si="1"/>
+        <v>7.3684210526315838E-2</v>
+      </c>
+      <c r="C4" s="34">
         <f t="shared" si="0"/>
-        <v>7.3684210526315838E-2</v>
-      </c>
-      <c r="C4" s="34">
-        <f>(E4-MIN($E$2:$E$17))/(MAX($E$2:$E$17)-MIN($E$2:$E$17))</f>
         <v>0.14893617021276595</v>
       </c>
       <c r="D4" s="34">
@@ -32462,11 +34579,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="34">
+        <f t="shared" si="1"/>
+        <v>0.21052631578947359</v>
+      </c>
+      <c r="C5" s="34">
         <f t="shared" si="0"/>
-        <v>0.21052631578947359</v>
-      </c>
-      <c r="C5" s="34">
-        <f>(E5-MIN($E$2:$E$17))/(MAX($E$2:$E$17)-MIN($E$2:$E$17))</f>
         <v>0.44680851063829785</v>
       </c>
       <c r="D5" s="34">
@@ -32481,11 +34598,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="34">
+        <f t="shared" si="1"/>
+        <v>0.24210526315789468</v>
+      </c>
+      <c r="C6" s="34">
         <f t="shared" si="0"/>
-        <v>0.24210526315789468</v>
-      </c>
-      <c r="C6" s="34">
-        <f>(E6-MIN($E$2:$E$17))/(MAX($E$2:$E$17)-MIN($E$2:$E$17))</f>
         <v>0.23404255319148937</v>
       </c>
       <c r="D6" s="34">
@@ -32500,11 +34617,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="34">
+        <f t="shared" si="1"/>
+        <v>0.24210526315789468</v>
+      </c>
+      <c r="C7" s="34">
         <f t="shared" si="0"/>
-        <v>0.24210526315789468</v>
-      </c>
-      <c r="C7" s="34">
-        <f>(E7-MIN($E$2:$E$17))/(MAX($E$2:$E$17)-MIN($E$2:$E$17))</f>
         <v>0.10638297872340426</v>
       </c>
       <c r="D7" s="34">
@@ -32519,11 +34636,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="34">
+        <f t="shared" si="1"/>
+        <v>0.28421052631578941</v>
+      </c>
+      <c r="C8" s="34">
         <f t="shared" si="0"/>
-        <v>0.28421052631578941</v>
-      </c>
-      <c r="C8" s="34">
-        <f>(E8-MIN($E$2:$E$17))/(MAX($E$2:$E$17)-MIN($E$2:$E$17))</f>
         <v>0.1276595744680851</v>
       </c>
       <c r="D8" s="34">
@@ -32538,11 +34655,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="54">
+        <f t="shared" si="1"/>
+        <v>0.3473684210526316</v>
+      </c>
+      <c r="C9" s="54">
         <f t="shared" si="0"/>
-        <v>0.3473684210526316</v>
-      </c>
-      <c r="C9" s="54">
-        <f>(E9-MIN($E$2:$E$17))/(MAX($E$2:$E$17)-MIN($E$2:$E$17))</f>
         <v>0.34042553191489361</v>
       </c>
       <c r="D9" s="54">
@@ -32557,11 +34674,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="34">
+        <f t="shared" si="1"/>
+        <v>0.36842105263157898</v>
+      </c>
+      <c r="C10" s="34">
         <f t="shared" si="0"/>
-        <v>0.36842105263157898</v>
-      </c>
-      <c r="C10" s="34">
-        <f>(E10-MIN($E$2:$E$17))/(MAX($E$2:$E$17)-MIN($E$2:$E$17))</f>
         <v>0.2978723404255319</v>
       </c>
       <c r="D10" s="34">
@@ -32576,11 +34693,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="34">
+        <f t="shared" si="1"/>
+        <v>0.36842105263157898</v>
+      </c>
+      <c r="C11" s="34">
         <f t="shared" si="0"/>
-        <v>0.36842105263157898</v>
-      </c>
-      <c r="C11" s="34">
-        <f>(E11-MIN($E$2:$E$17))/(MAX($E$2:$E$17)-MIN($E$2:$E$17))</f>
         <v>0.44680851063829785</v>
       </c>
       <c r="D11" s="34">
@@ -32595,11 +34712,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="34">
+        <f t="shared" si="1"/>
+        <v>0.36842105263157898</v>
+      </c>
+      <c r="C12" s="34">
         <f t="shared" si="0"/>
-        <v>0.36842105263157898</v>
-      </c>
-      <c r="C12" s="34">
-        <f>(E12-MIN($E$2:$E$17))/(MAX($E$2:$E$17)-MIN($E$2:$E$17))</f>
         <v>0.51063829787234039</v>
       </c>
       <c r="D12" s="34">
@@ -32614,11 +34731,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="34">
+        <f t="shared" si="1"/>
+        <v>0.47368421052631587</v>
+      </c>
+      <c r="C13" s="34">
         <f t="shared" si="0"/>
-        <v>0.47368421052631587</v>
-      </c>
-      <c r="C13" s="34">
-        <f>(E13-MIN($E$2:$E$17))/(MAX($E$2:$E$17)-MIN($E$2:$E$17))</f>
         <v>0.55319148936170215</v>
       </c>
       <c r="D13" s="34">
@@ -32633,11 +34750,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="34">
+        <f t="shared" si="1"/>
+        <v>0.50526315789473675</v>
+      </c>
+      <c r="C14" s="34">
         <f t="shared" si="0"/>
-        <v>0.50526315789473675</v>
-      </c>
-      <c r="C14" s="34">
-        <f>(E14-MIN($E$2:$E$17))/(MAX($E$2:$E$17)-MIN($E$2:$E$17))</f>
         <v>0.5957446808510638</v>
       </c>
       <c r="D14" s="34">
@@ -32652,11 +34769,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="34">
+        <f t="shared" si="1"/>
+        <v>0.5473684210526315</v>
+      </c>
+      <c r="C15" s="34">
         <f t="shared" si="0"/>
-        <v>0.5473684210526315</v>
-      </c>
-      <c r="C15" s="34">
-        <f>(E15-MIN($E$2:$E$17))/(MAX($E$2:$E$17)-MIN($E$2:$E$17))</f>
         <v>0.42553191489361702</v>
       </c>
       <c r="D15" s="34">
@@ -32671,11 +34788,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="34">
+        <f t="shared" si="1"/>
+        <v>0.84210526315789436</v>
+      </c>
+      <c r="C16" s="34">
         <f t="shared" si="0"/>
-        <v>0.84210526315789436</v>
-      </c>
-      <c r="C16" s="34">
-        <f>(E16-MIN($E$2:$E$17))/(MAX($E$2:$E$17)-MIN($E$2:$E$17))</f>
         <v>0.65957446808510634</v>
       </c>
       <c r="D16" s="34">
@@ -32690,11 +34807,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C17" s="34">
-        <f>(E17-MIN($E$2:$E$17))/(MAX($E$2:$E$17)-MIN($E$2:$E$17))</f>
         <v>1</v>
       </c>
       <c r="D17" s="34">
@@ -32717,384 +34834,390 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="D22" s="34" t="s">
         <v>44</v>
       </c>
       <c r="E22" s="34" t="s">
         <v>106</v>
       </c>
+      <c r="F22" s="34" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+      <c r="B23" s="34">
         <v>1</v>
-      </c>
-      <c r="B23" s="34">
-        <f>(D23-MIN($D$23:$D$38))/(MAX($D$23:$D$38)-MIN($D$23:$D$38))</f>
-        <v>0</v>
       </c>
       <c r="C23" s="34">
         <f>(E23-MIN($E$23:$E$38))/(MAX($E$23:$E$38)-MIN($E$23:$E$38))</f>
         <v>0</v>
       </c>
       <c r="D23" s="34">
+        <f>(F23-MIN($F$23:$F$38))/(MAX($F$23:$F$38)-MIN($F$23:$F$38))</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="98">
+        <v>1.7</v>
+      </c>
+      <c r="F23" s="34">
         <v>1.75</v>
       </c>
-      <c r="E23" s="108">
-        <v>1.7</v>
-      </c>
-      <c r="F23" s="34">
-        <f>_xlfn.FORECAST.LINEAR(E23,D23:D38,E23:E38)</f>
+      <c r="G23" s="34">
+        <f>_xlfn.FORECAST.LINEAR(E23,F23:F38,E23:E38)</f>
         <v>1.7395517138182686</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
+      <c r="B24" s="34">
         <v>2</v>
       </c>
-      <c r="B24" s="34">
-        <f t="shared" ref="B24:B38" si="1">(D24-MIN($D$23:$D$38))/(MAX($D$23:$D$38)-MIN($D$23:$D$38))</f>
+      <c r="C24" s="34">
+        <f t="shared" ref="C23:C38" si="2">(E24-MIN($E$23:$E$38))/(MAX($E$23:$E$38)-MIN($E$23:$E$38))</f>
+        <v>6.6667000000000018E-2</v>
+      </c>
+      <c r="D24" s="34">
+        <f>(F24-MIN($F$23:$F$38))/(MAX($F$23:$F$38)-MIN($F$23:$F$38))</f>
         <v>0</v>
       </c>
-      <c r="C24" s="34">
-        <f>(E24-MIN($E$23:$E$38))/(MAX($E$23:$E$38)-MIN($E$23:$E$38))</f>
-        <v>6.6667000000000018E-2</v>
-      </c>
-      <c r="D24" s="34">
+      <c r="E24" s="98">
+        <v>1.766667</v>
+      </c>
+      <c r="F24" s="34">
         <v>1.75</v>
       </c>
-      <c r="E24" s="108">
-        <v>1.766667</v>
-      </c>
-      <c r="F24" s="34">
-        <f>_xlfn.FORECAST.LINEAR(E24,D23:D38,E23:E38)</f>
+      <c r="G24" s="34">
+        <f>_xlfn.FORECAST.LINEAR(E24,F23:F38,E23:E38)</f>
         <v>1.7994183941804622</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
+      <c r="B25" s="34">
         <v>3</v>
       </c>
-      <c r="B25" s="34">
-        <f t="shared" si="1"/>
+      <c r="C25" s="34">
+        <f t="shared" si="2"/>
+        <v>0.13333300000000012</v>
+      </c>
+      <c r="D25" s="34">
+        <f>(F25-MIN($F$23:$F$38))/(MAX($F$23:$F$38)-MIN($F$23:$F$38))</f>
         <v>7.3684210526315838E-2</v>
       </c>
-      <c r="C25" s="34">
-        <f>(E25-MIN($E$23:$E$38))/(MAX($E$23:$E$38)-MIN($E$23:$E$38))</f>
-        <v>0.13333300000000012</v>
-      </c>
-      <c r="D25" s="34">
+      <c r="E25" s="98">
+        <v>1.8333330000000001</v>
+      </c>
+      <c r="F25" s="34">
         <v>1.82</v>
       </c>
-      <c r="E25" s="108">
-        <v>1.8333330000000001</v>
-      </c>
-      <c r="F25" s="34">
-        <f>_xlfn.FORECAST.LINEAR(E25,D23:D38,E23:E38)</f>
+      <c r="G25" s="34">
+        <f>_xlfn.FORECAST.LINEAR(E25,F23:F38,E23:E38)</f>
         <v>1.8592841765469408</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
+      <c r="B26" s="34">
         <v>4</v>
       </c>
-      <c r="B26" s="34">
-        <f t="shared" si="1"/>
+      <c r="C26" s="34">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="D26" s="34">
+        <f>(F26-MIN($F$23:$F$38))/(MAX($F$23:$F$38)-MIN($F$23:$F$38))</f>
         <v>0.21052631578947359</v>
       </c>
-      <c r="C26" s="34">
-        <f>(E26-MIN($E$23:$E$38))/(MAX($E$23:$E$38)-MIN($E$23:$E$38))</f>
-        <v>0.3</v>
-      </c>
-      <c r="D26" s="34">
+      <c r="E26" s="98">
+        <v>2</v>
+      </c>
+      <c r="F26" s="34">
         <v>1.95</v>
       </c>
-      <c r="E26" s="108">
-        <v>2</v>
-      </c>
-      <c r="F26" s="34">
-        <f>_xlfn.FORECAST.LINEAR(E26,D23:D38,E23:E38)</f>
+      <c r="G26" s="34">
+        <f>_xlfn.FORECAST.LINEAR(E26,F23:F38,E23:E38)</f>
         <v>2.0089504284545674</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
+      <c r="B27" s="34">
         <v>5</v>
       </c>
-      <c r="B27" s="34">
-        <f t="shared" si="1"/>
+      <c r="C27" s="34">
+        <f t="shared" si="2"/>
+        <v>0.3666669999999998</v>
+      </c>
+      <c r="D27" s="34">
+        <f>(F27-MIN($F$23:$F$38))/(MAX($F$23:$F$38)-MIN($F$23:$F$38))</f>
         <v>0.24210526315789468</v>
       </c>
-      <c r="C27" s="34">
-        <f>(E27-MIN($E$23:$E$38))/(MAX($E$23:$E$38)-MIN($E$23:$E$38))</f>
+      <c r="E27" s="98">
+        <v>2.0666669999999998</v>
+      </c>
+      <c r="F27" s="34">
+        <v>1.98</v>
+      </c>
+      <c r="G27" s="34">
+        <f>_xlfn.FORECAST.LINEAR(E27,F23:F38,E23:E38)</f>
+        <v>2.0688171088167611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="34">
+        <v>6</v>
+      </c>
+      <c r="C28" s="34">
+        <f t="shared" si="2"/>
+        <v>0.53333299999999995</v>
+      </c>
+      <c r="D28" s="34">
+        <f>(F28-MIN($F$23:$F$38))/(MAX($F$23:$F$38)-MIN($F$23:$F$38))</f>
+        <v>0.24210526315789468</v>
+      </c>
+      <c r="E28" s="98">
+        <v>2.233333</v>
+      </c>
+      <c r="F28" s="34">
+        <v>1.98</v>
+      </c>
+      <c r="G28" s="34">
+        <f>_xlfn.FORECAST.LINEAR(E28,F23:F38,E23:E38)</f>
+        <v>2.2184824627286721</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="34">
+        <v>7</v>
+      </c>
+      <c r="C29" s="34">
+        <f t="shared" si="2"/>
+        <v>0.1999999999999999</v>
+      </c>
+      <c r="D29" s="34">
+        <f>(F29-MIN($F$23:$F$38))/(MAX($F$23:$F$38)-MIN($F$23:$F$38))</f>
+        <v>0.28421052631578941</v>
+      </c>
+      <c r="E29" s="98">
+        <v>1.9</v>
+      </c>
+      <c r="F29" s="34">
+        <v>2.02</v>
+      </c>
+      <c r="G29" s="34">
+        <f>_xlfn.FORECAST.LINEAR(E29,F23:F38,E23:E38)</f>
+        <v>1.9191508569091345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="34">
+        <v>8</v>
+      </c>
+      <c r="C30" s="54">
+        <f t="shared" si="2"/>
+        <v>0.46666699999999983</v>
+      </c>
+      <c r="D30" s="54">
+        <f>(F30-MIN($F$23:$F$38))/(MAX($F$23:$F$38)-MIN($F$23:$F$38))</f>
+        <v>0.3473684210526316</v>
+      </c>
+      <c r="E30" s="99">
+        <v>2.1666669999999999</v>
+      </c>
+      <c r="F30" s="54">
+        <v>2.08</v>
+      </c>
+      <c r="G30" s="34">
+        <f>_xlfn.FORECAST.LINEAR(E30,F23:F38,E23:E38)</f>
+        <v>2.158616680362194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="34">
+        <v>9</v>
+      </c>
+      <c r="C31" s="34">
+        <f t="shared" si="2"/>
+        <v>0.43333299999999986</v>
+      </c>
+      <c r="D31" s="34">
+        <f>(F31-MIN($F$23:$F$38))/(MAX($F$23:$F$38)-MIN($F$23:$F$38))</f>
+        <v>0.36842105263157898</v>
+      </c>
+      <c r="E31" s="98">
+        <v>2.1333329999999999</v>
+      </c>
+      <c r="F31" s="34">
+        <v>2.1</v>
+      </c>
+      <c r="G31" s="34">
+        <f>_xlfn.FORECAST.LINEAR(E31,F23:F38,E23:E38)</f>
+        <v>2.1286828911832396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="34">
+        <v>10</v>
+      </c>
+      <c r="C32" s="34">
+        <f t="shared" si="2"/>
+        <v>0.43333299999999986</v>
+      </c>
+      <c r="D32" s="34">
+        <f>(F32-MIN($F$23:$F$38))/(MAX($F$23:$F$38)-MIN($F$23:$F$38))</f>
+        <v>0.36842105263157898</v>
+      </c>
+      <c r="E32" s="98">
+        <v>2.1333329999999999</v>
+      </c>
+      <c r="F32" s="34">
+        <v>2.1</v>
+      </c>
+      <c r="G32" s="34">
+        <f>_xlfn.FORECAST.LINEAR(E32,F23:F38,E23:E38)</f>
+        <v>2.1286828911832396</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="34">
+        <v>11</v>
+      </c>
+      <c r="C33" s="34">
+        <f t="shared" si="2"/>
+        <v>0.1999999999999999</v>
+      </c>
+      <c r="D33" s="34">
+        <f>(F33-MIN($F$23:$F$38))/(MAX($F$23:$F$38)-MIN($F$23:$F$38))</f>
+        <v>0.36842105263157898</v>
+      </c>
+      <c r="E33" s="98">
+        <v>1.9</v>
+      </c>
+      <c r="F33" s="34">
+        <v>2.1</v>
+      </c>
+      <c r="G33" s="34">
+        <f>_xlfn.FORECAST.LINEAR(E33,F23:F38,E23:E38)</f>
+        <v>1.9191508569091345</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="34">
+        <v>12</v>
+      </c>
+      <c r="C34" s="34">
+        <f t="shared" si="2"/>
+        <v>0.56666699999999992</v>
+      </c>
+      <c r="D34" s="34">
+        <f>(F34-MIN($F$23:$F$38))/(MAX($F$23:$F$38)-MIN($F$23:$F$38))</f>
+        <v>0.47368421052631587</v>
+      </c>
+      <c r="E34" s="98">
+        <v>2.266667</v>
+      </c>
+      <c r="F34" s="34">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G34" s="34">
+        <f>_xlfn.FORECAST.LINEAR(E34,F23:F38,E23:E38)</f>
+        <v>2.248416251907627</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="34">
+        <v>13</v>
+      </c>
+      <c r="C35" s="34">
+        <f t="shared" si="2"/>
+        <v>0.59999999999999976</v>
+      </c>
+      <c r="D35" s="34">
+        <f>(F35-MIN($F$23:$F$38))/(MAX($F$23:$F$38)-MIN($F$23:$F$38))</f>
+        <v>0.50526315789473675</v>
+      </c>
+      <c r="E35" s="98">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F35" s="34">
+        <v>2.23</v>
+      </c>
+      <c r="G35" s="34">
+        <f>_xlfn.FORECAST.LINEAR(E35,F23:F38,E23:E38)</f>
+        <v>2.2783491430908658</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="34">
+        <v>14</v>
+      </c>
+      <c r="C36" s="34">
+        <f t="shared" si="2"/>
         <v>0.3666669999999998</v>
       </c>
-      <c r="D27" s="34">
-        <v>1.98</v>
-      </c>
-      <c r="E27" s="108">
+      <c r="D36" s="34">
+        <f>(F36-MIN($F$23:$F$38))/(MAX($F$23:$F$38)-MIN($F$23:$F$38))</f>
+        <v>0.5473684210526315</v>
+      </c>
+      <c r="E36" s="98">
         <v>2.0666669999999998</v>
       </c>
-      <c r="F27" s="34">
-        <f>_xlfn.FORECAST.LINEAR(E27,D23:D38,E23:E38)</f>
+      <c r="F36" s="34">
+        <v>2.27</v>
+      </c>
+      <c r="G36" s="34">
+        <f>_xlfn.FORECAST.LINEAR(E36,F23:F38,E23:E38)</f>
         <v>2.0688171088167611</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="34">
-        <v>6</v>
-      </c>
-      <c r="B28" s="34">
-        <f t="shared" si="1"/>
-        <v>0.24210526315789468</v>
-      </c>
-      <c r="C28" s="34">
-        <f>(E28-MIN($E$23:$E$38))/(MAX($E$23:$E$38)-MIN($E$23:$E$38))</f>
-        <v>0.53333299999999995</v>
-      </c>
-      <c r="D28" s="34">
-        <v>1.98</v>
-      </c>
-      <c r="E28" s="108">
-        <v>2.233333</v>
-      </c>
-      <c r="F28" s="34">
-        <f>_xlfn.FORECAST.LINEAR(E28,D23:D38,E23:E38)</f>
-        <v>2.2184824627286721</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
-        <v>7</v>
-      </c>
-      <c r="B29" s="34">
-        <f t="shared" si="1"/>
-        <v>0.28421052631578941</v>
-      </c>
-      <c r="C29" s="34">
-        <f>(E29-MIN($E$23:$E$38))/(MAX($E$23:$E$38)-MIN($E$23:$E$38))</f>
-        <v>0.1999999999999999</v>
-      </c>
-      <c r="D29" s="34">
-        <v>2.02</v>
-      </c>
-      <c r="E29" s="108">
-        <v>1.9</v>
-      </c>
-      <c r="F29" s="34">
-        <f>_xlfn.FORECAST.LINEAR(E29,D23:D38,E23:E38)</f>
-        <v>1.9191508569091345</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
-        <v>8</v>
-      </c>
-      <c r="B30" s="54">
-        <f t="shared" si="1"/>
-        <v>0.3473684210526316</v>
-      </c>
-      <c r="C30" s="54">
-        <f>(E30-MIN($E$23:$E$38))/(MAX($E$23:$E$38)-MIN($E$23:$E$38))</f>
-        <v>0.46666699999999983</v>
-      </c>
-      <c r="D30" s="54">
-        <v>2.08</v>
-      </c>
-      <c r="E30" s="109">
-        <v>2.1666669999999999</v>
-      </c>
-      <c r="F30" s="34">
-        <f>_xlfn.FORECAST.LINEAR(E30,D23:D38,E23:E38)</f>
-        <v>2.158616680362194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
-        <v>9</v>
-      </c>
-      <c r="B31" s="34">
-        <f t="shared" si="1"/>
-        <v>0.36842105263157898</v>
-      </c>
-      <c r="C31" s="34">
-        <f>(E31-MIN($E$23:$E$38))/(MAX($E$23:$E$38)-MIN($E$23:$E$38))</f>
-        <v>0.43333299999999986</v>
-      </c>
-      <c r="D31" s="34">
-        <v>2.1</v>
-      </c>
-      <c r="E31" s="108">
-        <v>2.1333329999999999</v>
-      </c>
-      <c r="F31" s="34">
-        <f>_xlfn.FORECAST.LINEAR(E31,D23:D38,E23:E38)</f>
-        <v>2.1286828911832396</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
-        <v>10</v>
-      </c>
-      <c r="B32" s="34">
-        <f t="shared" si="1"/>
-        <v>0.36842105263157898</v>
-      </c>
-      <c r="C32" s="34">
-        <f>(E32-MIN($E$23:$E$38))/(MAX($E$23:$E$38)-MIN($E$23:$E$38))</f>
-        <v>0.43333299999999986</v>
-      </c>
-      <c r="D32" s="34">
-        <v>2.1</v>
-      </c>
-      <c r="E32" s="108">
-        <v>2.1333329999999999</v>
-      </c>
-      <c r="F32" s="34">
-        <f>_xlfn.FORECAST.LINEAR(E32,D23:D38,E23:E38)</f>
-        <v>2.1286828911832396</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
-        <v>11</v>
-      </c>
-      <c r="B33" s="34">
-        <f t="shared" si="1"/>
-        <v>0.36842105263157898</v>
-      </c>
-      <c r="C33" s="34">
-        <f>(E33-MIN($E$23:$E$38))/(MAX($E$23:$E$38)-MIN($E$23:$E$38))</f>
-        <v>0.1999999999999999</v>
-      </c>
-      <c r="D33" s="34">
-        <v>2.1</v>
-      </c>
-      <c r="E33" s="108">
-        <v>1.9</v>
-      </c>
-      <c r="F33" s="34">
-        <f>_xlfn.FORECAST.LINEAR(E33,D23:D38,E23:E38)</f>
-        <v>1.9191508569091345</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
-        <v>12</v>
-      </c>
-      <c r="B34" s="34">
-        <f t="shared" si="1"/>
-        <v>0.47368421052631587</v>
-      </c>
-      <c r="C34" s="34">
-        <f>(E34-MIN($E$23:$E$38))/(MAX($E$23:$E$38)-MIN($E$23:$E$38))</f>
-        <v>0.56666699999999992</v>
-      </c>
-      <c r="D34" s="34">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E34" s="108">
-        <v>2.266667</v>
-      </c>
-      <c r="F34" s="34">
-        <f>_xlfn.FORECAST.LINEAR(E34,D23:D38,E23:E38)</f>
-        <v>2.248416251907627</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
-        <v>13</v>
-      </c>
-      <c r="B35" s="34">
-        <f t="shared" si="1"/>
-        <v>0.50526315789473675</v>
-      </c>
-      <c r="C35" s="34">
-        <f>(E35-MIN($E$23:$E$38))/(MAX($E$23:$E$38)-MIN($E$23:$E$38))</f>
-        <v>0.59999999999999976</v>
-      </c>
-      <c r="D35" s="34">
-        <v>2.23</v>
-      </c>
-      <c r="E35" s="108">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F35" s="34">
-        <f>_xlfn.FORECAST.LINEAR(E35,D23:D38,E23:E38)</f>
-        <v>2.2783491430908658</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="34">
-        <v>14</v>
-      </c>
-      <c r="B36" s="34">
-        <f t="shared" si="1"/>
-        <v>0.5473684210526315</v>
-      </c>
-      <c r="C36" s="34">
-        <f>(E36-MIN($E$23:$E$38))/(MAX($E$23:$E$38)-MIN($E$23:$E$38))</f>
-        <v>0.3666669999999998</v>
-      </c>
-      <c r="D36" s="34">
-        <v>2.27</v>
-      </c>
-      <c r="E36" s="108">
-        <v>2.0666669999999998</v>
-      </c>
-      <c r="F36" s="34">
-        <f>_xlfn.FORECAST.LINEAR(E36,D23:D38,E23:E38)</f>
-        <v>2.0688171088167611</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="34">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="34">
         <v>15</v>
       </c>
-      <c r="B37" s="34">
-        <f t="shared" si="1"/>
+      <c r="C37" s="34">
+        <f t="shared" si="2"/>
+        <v>0.73333300000000012</v>
+      </c>
+      <c r="D37" s="34">
+        <f>(F37-MIN($F$23:$F$38))/(MAX($F$23:$F$38)-MIN($F$23:$F$38))</f>
         <v>0.84210526315789436</v>
       </c>
-      <c r="C37" s="34">
-        <f>(E37-MIN($E$23:$E$38))/(MAX($E$23:$E$38)-MIN($E$23:$E$38))</f>
-        <v>0.73333300000000012</v>
-      </c>
-      <c r="D37" s="34">
+      <c r="E37" s="98">
+        <v>2.4333330000000002</v>
+      </c>
+      <c r="F37" s="34">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E37" s="108">
-        <v>2.4333330000000002</v>
-      </c>
-      <c r="F37" s="34">
-        <f>_xlfn.FORECAST.LINEAR(E37,D23:D38,E23:E38)</f>
+      <c r="G37" s="34">
+        <f>_xlfn.FORECAST.LINEAR(E37,F23:F38,E23:E38)</f>
         <v>2.3980816058195389</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="34">
         <v>16</v>
       </c>
-      <c r="B38" s="34">
-        <f t="shared" si="1"/>
+      <c r="C38" s="34">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C38" s="34">
-        <f>(E38-MIN($E$23:$E$38))/(MAX($E$23:$E$38)-MIN($E$23:$E$38))</f>
+      <c r="D38" s="34">
+        <f>(F38-MIN($F$23:$F$38))/(MAX($F$23:$F$38)-MIN($F$23:$F$38))</f>
         <v>1</v>
       </c>
-      <c r="D38" s="34">
+      <c r="E38" s="98">
         <v>2.7</v>
       </c>
-      <c r="E38" s="108">
+      <c r="F38" s="34">
         <v>2.7</v>
       </c>
-      <c r="F38" s="34">
-        <f>_xlfn.FORECAST.LINEAR(E38,D23:D38,E23:E38)</f>
+      <c r="G38" s="34">
+        <f>_xlfn.FORECAST.LINEAR(E38,F23:F38,E23:E38)</f>
         <v>2.6375474292725984</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D41" s="34">
-        <f>CORREL(D23:D38,E23:E38)</f>
+        <f>CORREL(F23:F38,E23:E38)</f>
         <v>0.89709818687129483</v>
       </c>
     </row>
@@ -33338,713 +35461,713 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="85" t="s">
+      <c r="F12" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="I12" s="85" t="s">
+      <c r="I12" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="87" t="s">
+      <c r="J12" s="80" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="90">
+      <c r="F13" s="83">
         <v>40</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="78">
         <v>1</v>
       </c>
-      <c r="H13" s="84">
-        <f>G13*$F$13</f>
+      <c r="H13" s="77">
+        <f t="shared" ref="H13:H53" si="0">G13*$F$13</f>
         <v>40</v>
       </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="89"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G14" s="85">
+      <c r="G14" s="78">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H14" s="84">
-        <f>G14*$F$13</f>
+      <c r="H14" s="77">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I14" s="84">
+      <c r="I14" s="77">
         <f>H14-H13</f>
         <v>4</v>
       </c>
-      <c r="J14" s="86">
+      <c r="J14" s="79">
         <f>I14/10</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G15" s="85">
+      <c r="G15" s="78">
         <v>1.2</v>
       </c>
-      <c r="H15" s="84">
-        <f>G15*$F$13</f>
+      <c r="H15" s="77">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I15" s="84">
-        <f t="shared" ref="I15:I53" si="0">H15-H14</f>
+      <c r="I15" s="77">
+        <f t="shared" ref="I15:I52" si="1">H15-H14</f>
         <v>4</v>
       </c>
-      <c r="J15" s="86">
-        <f t="shared" ref="J15:J53" si="1">I15/10</f>
+      <c r="J15" s="79">
+        <f t="shared" ref="J15:J53" si="2">I15/10</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G16" s="85">
+      <c r="G16" s="78">
         <v>1.3</v>
       </c>
-      <c r="H16" s="84">
-        <f>G16*$F$13</f>
+      <c r="H16" s="77">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="I16" s="84">
+      <c r="I16" s="77">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J16" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="78">
+        <v>1.4</v>
+      </c>
+      <c r="H17" s="77">
         <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I17" s="77">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J16" s="86">
+      <c r="J17" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="78">
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="77">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="I18" s="77">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J18" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G17" s="85">
-        <v>1.4</v>
-      </c>
-      <c r="H17" s="84">
-        <f>G17*$F$13</f>
-        <v>56</v>
-      </c>
-      <c r="I17" s="84">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="78">
+        <v>1.6</v>
+      </c>
+      <c r="H19" s="77">
         <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="I19" s="77">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J17" s="86">
+      <c r="J19" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="78">
+        <v>1.7</v>
+      </c>
+      <c r="H20" s="77">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="I20" s="77">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J20" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G18" s="85">
-        <v>1.5</v>
-      </c>
-      <c r="H18" s="84">
-        <f>G18*$F$13</f>
-        <v>60</v>
-      </c>
-      <c r="I18" s="84">
+    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="78">
+        <v>1.8</v>
+      </c>
+      <c r="H21" s="77">
         <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="I21" s="77">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J18" s="86">
+      <c r="J21" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="78">
+        <v>1.9</v>
+      </c>
+      <c r="H22" s="77">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="I22" s="77">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J22" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G19" s="85">
-        <v>1.6</v>
-      </c>
-      <c r="H19" s="84">
-        <f>G19*$F$13</f>
-        <v>64</v>
-      </c>
-      <c r="I19" s="84">
+    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="78">
+        <v>2</v>
+      </c>
+      <c r="H23" s="77">
         <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="I23" s="77">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J19" s="86">
+      <c r="J23" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="78">
+        <v>2.1</v>
+      </c>
+      <c r="H24" s="77">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="I24" s="77">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J24" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G20" s="85">
-        <v>1.7</v>
-      </c>
-      <c r="H20" s="84">
-        <f>G20*$F$13</f>
-        <v>68</v>
-      </c>
-      <c r="I20" s="84">
+    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="78">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H25" s="77">
         <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="I25" s="77">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J20" s="86">
+      <c r="J25" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="78">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H26" s="77">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="I26" s="77">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J26" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G21" s="85">
-        <v>1.8</v>
-      </c>
-      <c r="H21" s="84">
-        <f>G21*$F$13</f>
-        <v>72</v>
-      </c>
-      <c r="I21" s="84">
+    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="78">
+        <v>2.4</v>
+      </c>
+      <c r="H27" s="77">
         <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I27" s="77">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J21" s="86">
+      <c r="J27" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="78">
+        <v>2.5</v>
+      </c>
+      <c r="H28" s="77">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I28" s="77">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J28" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G22" s="85">
-        <v>1.9</v>
-      </c>
-      <c r="H22" s="84">
-        <f>G22*$F$13</f>
-        <v>76</v>
-      </c>
-      <c r="I22" s="84">
+    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="78">
+        <v>2.6</v>
+      </c>
+      <c r="H29" s="77">
         <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="I29" s="77">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J22" s="86">
+      <c r="J29" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="78">
+        <v>2.7</v>
+      </c>
+      <c r="H30" s="77">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="I30" s="77">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J30" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G23" s="85">
-        <v>2</v>
-      </c>
-      <c r="H23" s="84">
-        <f>G23*$F$13</f>
-        <v>80</v>
-      </c>
-      <c r="I23" s="84">
+    <row r="31" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="78">
+        <v>2.8</v>
+      </c>
+      <c r="H31" s="77">
         <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="I31" s="77">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J23" s="86">
+      <c r="J31" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="78">
+        <v>2.9</v>
+      </c>
+      <c r="H32" s="77">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="I32" s="77">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J32" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G24" s="85">
-        <v>2.1</v>
-      </c>
-      <c r="H24" s="84">
-        <f>G24*$F$13</f>
-        <v>84</v>
-      </c>
-      <c r="I24" s="84">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="78">
+        <v>3</v>
+      </c>
+      <c r="H33" s="77">
         <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="I33" s="77">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J24" s="86">
+      <c r="J33" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="78">
+        <v>3.1</v>
+      </c>
+      <c r="H34" s="77">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="I34" s="77">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J34" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G25" s="85">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H25" s="84">
-        <f>G25*$F$13</f>
-        <v>88</v>
-      </c>
-      <c r="I25" s="84">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="78">
+        <v>3.2</v>
+      </c>
+      <c r="H35" s="77">
         <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="I35" s="77">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J25" s="86">
+      <c r="J35" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="H36" s="77">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="I36" s="77">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J36" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G26" s="85">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H26" s="84">
-        <f>G26*$F$13</f>
-        <v>92</v>
-      </c>
-      <c r="I26" s="84">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G37" s="78">
+        <v>3.4</v>
+      </c>
+      <c r="H37" s="77">
         <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="I37" s="77">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J26" s="86">
+      <c r="J37" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="78">
+        <v>3.5</v>
+      </c>
+      <c r="H38" s="77">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="I38" s="77">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J38" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G27" s="85">
-        <v>2.4</v>
-      </c>
-      <c r="H27" s="84">
-        <f>G27*$F$13</f>
-        <v>96</v>
-      </c>
-      <c r="I27" s="84">
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="78">
+        <v>3.6</v>
+      </c>
+      <c r="H39" s="77">
         <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="I39" s="77">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J27" s="86">
+      <c r="J39" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="78">
+        <v>3.7</v>
+      </c>
+      <c r="H40" s="77">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="I40" s="77">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J40" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G28" s="85">
-        <v>2.5</v>
-      </c>
-      <c r="H28" s="84">
-        <f>G28*$F$13</f>
-        <v>100</v>
-      </c>
-      <c r="I28" s="84">
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="78">
+        <v>3.8</v>
+      </c>
+      <c r="H41" s="77">
         <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="I41" s="77">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J28" s="86">
+      <c r="J41" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="78">
+        <v>3.9</v>
+      </c>
+      <c r="H42" s="77">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="I42" s="77">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J42" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G29" s="85">
-        <v>2.6</v>
-      </c>
-      <c r="H29" s="84">
-        <f>G29*$F$13</f>
-        <v>104</v>
-      </c>
-      <c r="I29" s="84">
+    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G43" s="78">
+        <v>4</v>
+      </c>
+      <c r="H43" s="77">
         <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="I43" s="77">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J29" s="86">
+      <c r="J43" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="78">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H44" s="77">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="I44" s="77">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J44" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="30" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G30" s="85">
-        <v>2.7</v>
-      </c>
-      <c r="H30" s="84">
-        <f>G30*$F$13</f>
-        <v>108</v>
-      </c>
-      <c r="I30" s="84">
+    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="78">
+        <v>4.2</v>
+      </c>
+      <c r="H45" s="77">
         <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="I45" s="77">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J30" s="86">
+      <c r="J45" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="78">
+        <v>4.3</v>
+      </c>
+      <c r="H46" s="77">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="I46" s="77">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J46" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="31" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G31" s="85">
-        <v>2.8</v>
-      </c>
-      <c r="H31" s="84">
-        <f>G31*$F$13</f>
-        <v>112</v>
-      </c>
-      <c r="I31" s="84">
+    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G47" s="78">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H47" s="77">
         <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="I47" s="77">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J31" s="86">
+      <c r="J47" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G48" s="78">
+        <v>4.5</v>
+      </c>
+      <c r="H48" s="77">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="I48" s="77">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J48" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G32" s="85">
-        <v>2.9</v>
-      </c>
-      <c r="H32" s="84">
-        <f>G32*$F$13</f>
-        <v>116</v>
-      </c>
-      <c r="I32" s="84">
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="78">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H49" s="77">
         <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="I49" s="77">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J32" s="86">
+      <c r="J49" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="78">
+        <v>4.7</v>
+      </c>
+      <c r="H50" s="77">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="I50" s="77">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J50" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G33" s="85">
-        <v>3</v>
-      </c>
-      <c r="H33" s="84">
-        <f>G33*$F$13</f>
-        <v>120</v>
-      </c>
-      <c r="I33" s="84">
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G51" s="78">
+        <v>4.8</v>
+      </c>
+      <c r="H51" s="77">
         <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="I51" s="77">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J33" s="86">
+      <c r="J51" s="79">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="78">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H52" s="77">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="I52" s="77">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J52" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G34" s="85">
-        <v>3.1</v>
-      </c>
-      <c r="H34" s="84">
-        <f>G34*$F$13</f>
-        <v>124</v>
-      </c>
-      <c r="I34" s="84">
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G53" s="78">
+        <v>5</v>
+      </c>
+      <c r="H53" s="77">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J34" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G35" s="85">
-        <v>3.2</v>
-      </c>
-      <c r="H35" s="84">
-        <f>G35*$F$13</f>
-        <v>128</v>
-      </c>
-      <c r="I35" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J35" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G36" s="85">
-        <v>3.3</v>
-      </c>
-      <c r="H36" s="84">
-        <f>G36*$F$13</f>
-        <v>132</v>
-      </c>
-      <c r="I36" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J36" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G37" s="85">
-        <v>3.4</v>
-      </c>
-      <c r="H37" s="84">
-        <f>G37*$F$13</f>
-        <v>136</v>
-      </c>
-      <c r="I37" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J37" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G38" s="85">
-        <v>3.5</v>
-      </c>
-      <c r="H38" s="84">
-        <f>G38*$F$13</f>
-        <v>140</v>
-      </c>
-      <c r="I38" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J38" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G39" s="85">
-        <v>3.6</v>
-      </c>
-      <c r="H39" s="84">
-        <f>G39*$F$13</f>
-        <v>144</v>
-      </c>
-      <c r="I39" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J39" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G40" s="85">
-        <v>3.7</v>
-      </c>
-      <c r="H40" s="84">
-        <f>G40*$F$13</f>
-        <v>148</v>
-      </c>
-      <c r="I40" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J40" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G41" s="85">
-        <v>3.8</v>
-      </c>
-      <c r="H41" s="84">
-        <f>G41*$F$13</f>
-        <v>152</v>
-      </c>
-      <c r="I41" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J41" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G42" s="85">
-        <v>3.9</v>
-      </c>
-      <c r="H42" s="84">
-        <f>G42*$F$13</f>
-        <v>156</v>
-      </c>
-      <c r="I42" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J42" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G43" s="85">
-        <v>4</v>
-      </c>
-      <c r="H43" s="84">
-        <f>G43*$F$13</f>
-        <v>160</v>
-      </c>
-      <c r="I43" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J43" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G44" s="85">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H44" s="84">
-        <f>G44*$F$13</f>
-        <v>164</v>
-      </c>
-      <c r="I44" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J44" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G45" s="85">
-        <v>4.2</v>
-      </c>
-      <c r="H45" s="84">
-        <f>G45*$F$13</f>
-        <v>168</v>
-      </c>
-      <c r="I45" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J45" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G46" s="85">
-        <v>4.3</v>
-      </c>
-      <c r="H46" s="84">
-        <f>G46*$F$13</f>
-        <v>172</v>
-      </c>
-      <c r="I46" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J46" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G47" s="85">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H47" s="84">
-        <f>G47*$F$13</f>
-        <v>176</v>
-      </c>
-      <c r="I47" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J47" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G48" s="85">
-        <v>4.5</v>
-      </c>
-      <c r="H48" s="84">
-        <f>G48*$F$13</f>
-        <v>180</v>
-      </c>
-      <c r="I48" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J48" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G49" s="85">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H49" s="84">
-        <f>G49*$F$13</f>
-        <v>184</v>
-      </c>
-      <c r="I49" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J49" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G50" s="85">
-        <v>4.7</v>
-      </c>
-      <c r="H50" s="84">
-        <f>G50*$F$13</f>
-        <v>188</v>
-      </c>
-      <c r="I50" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J50" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G51" s="85">
-        <v>4.8</v>
-      </c>
-      <c r="H51" s="84">
-        <f>G51*$F$13</f>
-        <v>192</v>
-      </c>
-      <c r="I51" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J51" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G52" s="85">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H52" s="84">
-        <f>G52*$F$13</f>
-        <v>196</v>
-      </c>
-      <c r="I52" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J52" s="86">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G53" s="85">
-        <v>5</v>
-      </c>
-      <c r="H53" s="84">
-        <f>G53*$F$13</f>
         <v>200</v>
       </c>
-      <c r="I53" s="84">
+      <c r="I53" s="77">
         <f>H53-H52</f>
         <v>4</v>
       </c>
-      <c r="J53" s="86">
-        <f t="shared" si="1"/>
+      <c r="J53" s="79">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
@@ -34058,8 +36181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC5D955-215A-4354-A44F-059CBDC10DF5}">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView topLeftCell="C29" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34220,7 +36343,7 @@
       <c r="G16" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="81"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="44" t="s">
         <v>74</v>
       </c>
@@ -34279,7 +36402,7 @@
       <c r="G18" s="43">
         <v>0.97768318771457474</v>
       </c>
-      <c r="H18" s="82"/>
+      <c r="H18" s="75"/>
       <c r="I18" s="43">
         <v>0.50302850024498291</v>
       </c>
@@ -34300,7 +36423,7 @@
       <c r="G21" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="83"/>
+      <c r="H21" s="76"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -34324,13 +36447,13 @@
       <c r="E23" s="47">
         <v>1</v>
       </c>
-      <c r="F23" s="92">
+      <c r="F23" s="85">
         <v>1.6333329999999999</v>
       </c>
       <c r="G23" s="39">
         <v>1.7</v>
       </c>
-      <c r="H23" s="95">
+      <c r="H23" s="88">
         <f>_xlfn.FORECAST.LINEAR(F23,G23:G40,F23:F40)</f>
         <v>1.7648256229278463</v>
       </c>
@@ -34351,13 +36474,13 @@
       <c r="E24" s="47">
         <v>2</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="85">
         <v>1.6666669999999999</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="65">
         <v>1.82</v>
       </c>
-      <c r="H24" s="95">
+      <c r="H24" s="88">
         <f>_xlfn.FORECAST.LINEAR(F24,G23:G40,F23:F40)</f>
         <v>1.7895046446310683</v>
       </c>
@@ -34366,13 +36489,13 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="94">
+      <c r="A25" s="87">
         <v>1</v>
       </c>
       <c r="B25" s="52">
         <v>1.7648256229278465</v>
       </c>
-      <c r="C25" s="94">
+      <c r="C25" s="87">
         <v>-6.4825622927846549E-2</v>
       </c>
       <c r="E25" s="47">
@@ -34381,10 +36504,10 @@
       <c r="F25" s="39">
         <v>1.8</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="65">
         <v>2.02</v>
       </c>
-      <c r="H25" s="95">
+      <c r="H25" s="88">
         <f>_xlfn.FORECAST.LINEAR(F25,G23:G40,F23:F40)</f>
         <v>1.8882185103764244</v>
       </c>
@@ -34393,29 +36516,29 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="94">
+      <c r="A26" s="87">
         <v>2</v>
       </c>
       <c r="B26" s="52">
         <v>1.7895046446310685</v>
       </c>
-      <c r="C26" s="94">
+      <c r="C26" s="87">
         <v>3.0495355368931554E-2</v>
       </c>
       <c r="E26" s="47">
         <v>4</v>
       </c>
-      <c r="F26" s="92">
+      <c r="F26" s="85">
         <v>1.8333330000000001</v>
       </c>
       <c r="G26" s="39">
         <v>1.82</v>
       </c>
-      <c r="H26" s="95">
+      <c r="H26" s="88">
         <f>_xlfn.FORECAST.LINEAR(F26,G23:G40,F23:F40)</f>
         <v>1.9128967917238024</v>
       </c>
-      <c r="I26" s="96">
+      <c r="I26" s="89">
         <v>-1</v>
       </c>
     </row>
@@ -34432,28 +36555,28 @@
       <c r="E27" s="47">
         <v>5</v>
       </c>
-      <c r="F27" s="92">
+      <c r="F27" s="85">
         <v>1.8666670000000001</v>
       </c>
-      <c r="G27" s="67">
+      <c r="G27" s="65">
         <v>1.92</v>
       </c>
-      <c r="H27" s="95">
+      <c r="H27" s="88">
         <f>_xlfn.FORECAST.LINEAR(F27,G23:G40,F23:F40)</f>
         <v>1.9375758134270242</v>
       </c>
-      <c r="I27" s="91">
+      <c r="I27" s="84">
         <v>-4</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="94">
+      <c r="A28" s="87">
         <v>4</v>
       </c>
       <c r="B28" s="52">
         <v>1.9128967917238024</v>
       </c>
-      <c r="C28" s="94">
+      <c r="C28" s="87">
         <v>-9.2896791723802385E-2</v>
       </c>
       <c r="E28" s="47">
@@ -34465,22 +36588,22 @@
       <c r="G28" s="39">
         <v>1.77</v>
       </c>
-      <c r="H28" s="95">
+      <c r="H28" s="88">
         <f>_xlfn.FORECAST.LINEAR(F28,G23:G40,F23:F40)</f>
         <v>1.9375758134270242</v>
       </c>
-      <c r="I28" s="78">
+      <c r="I28" s="71">
         <v>-3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="94">
+      <c r="A29" s="87">
         <v>5</v>
       </c>
       <c r="B29" s="52">
         <v>1.9375758134270242</v>
       </c>
-      <c r="C29" s="94">
+      <c r="C29" s="87">
         <v>-1.75758134270243E-2</v>
       </c>
       <c r="E29" s="47">
@@ -34489,14 +36612,14 @@
       <c r="F29" s="39">
         <v>1.8666670000000001</v>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="65">
         <v>2.1</v>
       </c>
-      <c r="H29" s="95">
+      <c r="H29" s="88">
         <f>_xlfn.FORECAST.LINEAR(F29,G23:G40,F23:F40)</f>
         <v>1.9375758134270242</v>
       </c>
-      <c r="I29" s="78">
+      <c r="I29" s="71">
         <v>3</v>
       </c>
     </row>
@@ -34513,17 +36636,17 @@
       <c r="E30" s="47">
         <v>8</v>
       </c>
-      <c r="F30" s="92">
+      <c r="F30" s="85">
         <v>1.9</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="65">
         <v>2.0499999999999998</v>
       </c>
-      <c r="H30" s="95">
+      <c r="H30" s="88">
         <f>_xlfn.FORECAST.LINEAR(F30,G23:G40,F23:F40)</f>
         <v>1.962254094774402</v>
       </c>
-      <c r="I30" s="91">
+      <c r="I30" s="84">
         <v>-7</v>
       </c>
     </row>
@@ -34540,28 +36663,28 @@
       <c r="E31" s="47">
         <v>9</v>
       </c>
-      <c r="F31" s="92">
+      <c r="F31" s="85">
         <v>1.9666669999999999</v>
       </c>
-      <c r="G31" s="67">
+      <c r="G31" s="65">
         <v>2.0499999999999998</v>
       </c>
-      <c r="H31" s="95">
+      <c r="H31" s="88">
         <f>_xlfn.FORECAST.LINEAR(F31,G23:G40,F23:F40)</f>
         <v>2.0116113978250021</v>
       </c>
-      <c r="I31" s="91">
+      <c r="I31" s="84">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="94">
+      <c r="A32" s="87">
         <v>8</v>
       </c>
       <c r="B32" s="52">
         <v>1.9622540947744023</v>
       </c>
-      <c r="C32" s="94">
+      <c r="C32" s="87">
         <v>8.7745905225597554E-2</v>
       </c>
       <c r="E32" s="47">
@@ -34573,7 +36696,7 @@
       <c r="G32" s="39">
         <v>1.82</v>
       </c>
-      <c r="H32" s="95">
+      <c r="H32" s="88">
         <f>_xlfn.FORECAST.LINEAR(F32,G23:G40,F23:F40)</f>
         <v>2.0362896791723801</v>
       </c>
@@ -34582,29 +36705,29 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="94">
+      <c r="A33" s="87">
         <v>9</v>
       </c>
       <c r="B33" s="52">
         <v>2.0116113978250021</v>
       </c>
-      <c r="C33" s="94">
+      <c r="C33" s="87">
         <v>3.8388602174997732E-2</v>
       </c>
       <c r="E33" s="47">
         <v>11</v>
       </c>
-      <c r="F33" s="92">
+      <c r="F33" s="85">
         <v>2.1</v>
       </c>
-      <c r="G33" s="67">
+      <c r="G33" s="65">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H33" s="95">
+      <c r="H33" s="88">
         <f>_xlfn.FORECAST.LINEAR(F33,G23:G40,F23:F40)</f>
         <v>2.110325263570358</v>
       </c>
-      <c r="I33" s="91">
+      <c r="I33" s="84">
         <v>-1</v>
       </c>
     </row>
@@ -34621,40 +36744,40 @@
       <c r="E34" s="47">
         <v>12</v>
       </c>
-      <c r="F34" s="92">
+      <c r="F34" s="85">
         <v>2.1</v>
       </c>
-      <c r="G34" s="67">
+      <c r="G34" s="65">
         <v>2.08</v>
       </c>
-      <c r="H34" s="95">
+      <c r="H34" s="88">
         <f>_xlfn.FORECAST.LINEAR(F34,G23:G40,F23:F40)</f>
         <v>2.110325263570358</v>
       </c>
-      <c r="I34" s="91">
+      <c r="I34" s="84">
         <v>-6</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="94">
+      <c r="A35" s="87">
         <v>11</v>
       </c>
       <c r="B35" s="52">
         <v>2.110325263570358</v>
       </c>
-      <c r="C35" s="94">
+      <c r="C35" s="87">
         <v>8.9674736429642188E-2</v>
       </c>
       <c r="E35" s="47">
         <v>13</v>
       </c>
-      <c r="F35" s="92">
+      <c r="F35" s="85">
         <v>2.1333329999999999</v>
       </c>
       <c r="G35" s="39">
         <v>2.0499999999999998</v>
       </c>
-      <c r="H35" s="95">
+      <c r="H35" s="88">
         <f>_xlfn.FORECAST.LINEAR(F35,G23:G40,F23:F40)</f>
         <v>2.135003544917736</v>
       </c>
@@ -34663,40 +36786,40 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="94">
+      <c r="A36" s="87">
         <v>12</v>
       </c>
       <c r="B36" s="52">
         <v>2.110325263570358</v>
       </c>
-      <c r="C36" s="94">
+      <c r="C36" s="87">
         <v>-3.0325263570357919E-2</v>
       </c>
       <c r="E36" s="47">
         <v>14</v>
       </c>
-      <c r="F36" s="92">
+      <c r="F36" s="85">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G36" s="67">
+      <c r="G36" s="65">
         <v>2.27</v>
       </c>
-      <c r="H36" s="95">
+      <c r="H36" s="88">
         <f>_xlfn.FORECAST.LINEAR(F36,G23:G40,F23:F40)</f>
         <v>2.1843608479683363</v>
       </c>
-      <c r="I36" s="91">
+      <c r="I36" s="84">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="94">
+      <c r="A37" s="87">
         <v>13</v>
       </c>
       <c r="B37" s="52">
         <v>2.135003544917736</v>
       </c>
-      <c r="C37" s="94">
+      <c r="C37" s="87">
         <v>-8.5003544917736207E-2</v>
       </c>
       <c r="E37" s="47">
@@ -34705,37 +36828,37 @@
       <c r="F37" s="39">
         <v>2.233333</v>
       </c>
-      <c r="G37" s="67">
+      <c r="G37" s="65">
         <v>2.33</v>
       </c>
-      <c r="H37" s="95">
+      <c r="H37" s="88">
         <f>_xlfn.FORECAST.LINEAR(F37,G23:G40,F23:F40)</f>
         <v>2.2090391293157139</v>
       </c>
-      <c r="I37" s="78">
+      <c r="I37" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="94">
+      <c r="A38" s="87">
         <v>14</v>
       </c>
       <c r="B38" s="52">
         <v>2.1843608479683363</v>
       </c>
-      <c r="C38" s="94">
+      <c r="C38" s="87">
         <v>8.5639152031663723E-2</v>
       </c>
       <c r="E38" s="47">
         <v>16</v>
       </c>
-      <c r="F38" s="92">
+      <c r="F38" s="85">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G38" s="67">
+      <c r="G38" s="65">
         <v>2.25</v>
       </c>
-      <c r="H38" s="95">
+      <c r="H38" s="88">
         <f>_xlfn.FORECAST.LINEAR(F38,G23:G40,F23:F40)</f>
         <v>2.2583964323663137</v>
       </c>
@@ -34756,13 +36879,13 @@
       <c r="E39" s="47">
         <v>17</v>
       </c>
-      <c r="F39" s="92">
+      <c r="F39" s="85">
         <v>2.4</v>
       </c>
-      <c r="G39" s="67">
+      <c r="G39" s="65">
         <v>2.38</v>
       </c>
-      <c r="H39" s="95">
+      <c r="H39" s="88">
         <f>_xlfn.FORECAST.LINEAR(F39,G23:G40,F23:F40)</f>
         <v>2.332432016764292</v>
       </c>
@@ -34771,13 +36894,13 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="94">
+      <c r="A40" s="87">
         <v>16</v>
       </c>
       <c r="B40" s="52">
         <v>2.2583964323663137</v>
       </c>
-      <c r="C40" s="94">
+      <c r="C40" s="87">
         <v>-8.3964323663137108E-3</v>
       </c>
       <c r="E40" s="47">
@@ -34789,7 +36912,7 @@
       <c r="G40" s="39">
         <v>2.27</v>
       </c>
-      <c r="H40" s="95">
+      <c r="H40" s="88">
         <f>_xlfn.FORECAST.LINEAR(F40,G23:G40,F23:F40)</f>
         <v>2.3817893198148918</v>
       </c>
@@ -34799,25 +36922,25 @@
       <c r="K40" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="L40" s="68">
+      <c r="L40" s="66">
         <f>CORREL(F23:F40,G23:G40)</f>
         <v>0.85565499870263673</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="94">
+      <c r="A41" s="87">
         <v>17</v>
       </c>
       <c r="B41" s="52">
         <v>2.3324320167642916</v>
       </c>
-      <c r="C41" s="94">
+      <c r="C41" s="87">
         <v>4.7567983235708322E-2</v>
       </c>
       <c r="K41" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="L41" s="68">
+      <c r="L41" s="66">
         <f>DEVSQ(F23:F40)</f>
         <v>0.97160482469244447</v>
       </c>
@@ -34832,12 +36955,12 @@
       <c r="C42" s="52">
         <v>-0.11178931981489137</v>
       </c>
-      <c r="E42" s="80"/>
-      <c r="F42" s="66"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="39"/>
       <c r="K42" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="L42" s="68">
+      <c r="L42" s="66">
         <f>DEVSQ(G23:G40)</f>
         <v>0.72740000000000005</v>
       </c>
@@ -34859,26 +36982,26 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="92">
+      <c r="A49" s="85">
         <v>1.6333329999999999</v>
       </c>
       <c r="B49">
-        <f>(A49-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
+        <f t="shared" ref="B49:B66" si="0">(A49-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
         <v>0</v>
       </c>
-      <c r="C49" s="94">
+      <c r="C49" s="87">
         <v>-6.4825622927846549E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="92">
+      <c r="A50" s="85">
         <v>1.6666669999999999</v>
       </c>
       <c r="B50">
-        <f>(A50-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
+        <f t="shared" si="0"/>
         <v>4.000076799938556E-2</v>
       </c>
-      <c r="C50" s="94">
+      <c r="C50" s="87">
         <v>3.0495355368931554E-2</v>
       </c>
     </row>
@@ -34887,7 +37010,7 @@
         <v>1.8</v>
       </c>
       <c r="B51">
-        <f>(A51-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
+        <f t="shared" si="0"/>
         <v>0.20000023999980809</v>
       </c>
       <c r="C51" s="52">
@@ -34895,26 +37018,26 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="92">
+      <c r="A52" s="85">
         <v>1.8333330000000001</v>
       </c>
       <c r="B52">
-        <f>(A52-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
+        <f t="shared" si="0"/>
         <v>0.23999980800015375</v>
       </c>
-      <c r="C52" s="94">
+      <c r="C52" s="87">
         <v>-9.2896791723802385E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="92">
+      <c r="A53" s="85">
         <v>1.8666670000000001</v>
       </c>
       <c r="B53">
-        <f>(A53-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
+        <f t="shared" si="0"/>
         <v>0.28000057599953931</v>
       </c>
-      <c r="C53" s="94">
+      <c r="C53" s="87">
         <v>-1.75758134270243E-2</v>
       </c>
     </row>
@@ -34923,7 +37046,7 @@
         <v>1.8666670000000001</v>
       </c>
       <c r="B54">
-        <f>(A54-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
+        <f t="shared" si="0"/>
         <v>0.28000057599953931</v>
       </c>
       <c r="C54" s="52">
@@ -34935,7 +37058,7 @@
         <v>1.8666670000000001</v>
       </c>
       <c r="B55">
-        <f>(A55-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
+        <f t="shared" si="0"/>
         <v>0.28000057599953931</v>
       </c>
       <c r="C55" s="52">
@@ -34943,26 +37066,26 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="92">
+      <c r="A56" s="85">
         <v>1.9</v>
       </c>
       <c r="B56">
-        <f>(A56-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
+        <f t="shared" si="0"/>
         <v>0.32000014399988469</v>
       </c>
-      <c r="C56" s="94">
+      <c r="C56" s="87">
         <v>8.7745905225597554E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="92">
+      <c r="A57" s="85">
         <v>1.9666669999999999</v>
       </c>
       <c r="B57">
-        <f>(A57-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
+        <f t="shared" si="0"/>
         <v>0.40000047999961591</v>
       </c>
-      <c r="C57" s="94">
+      <c r="C57" s="87">
         <v>3.8388602174997732E-2</v>
       </c>
     </row>
@@ -34971,7 +37094,7 @@
         <v>2</v>
       </c>
       <c r="B58">
-        <f>(A58-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
+        <f t="shared" si="0"/>
         <v>0.44000004799996156</v>
       </c>
       <c r="C58" s="52">
@@ -34979,50 +37102,50 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="92">
+      <c r="A59" s="85">
         <v>2.1</v>
       </c>
       <c r="B59">
-        <f>(A59-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
+        <f t="shared" si="0"/>
         <v>0.55999995200003838</v>
       </c>
-      <c r="C59" s="94">
+      <c r="C59" s="87">
         <v>8.9674736429642188E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="92">
+      <c r="A60" s="85">
         <v>2.1</v>
       </c>
       <c r="B60">
-        <f>(A60-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
+        <f t="shared" si="0"/>
         <v>0.55999995200003838</v>
       </c>
-      <c r="C60" s="94">
+      <c r="C60" s="87">
         <v>-3.0325263570357919E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="92">
+      <c r="A61" s="85">
         <v>2.1333329999999999</v>
       </c>
       <c r="B61">
-        <f>(A61-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
+        <f t="shared" si="0"/>
         <v>0.59999952000038381</v>
       </c>
-      <c r="C61" s="94">
+      <c r="C61" s="87">
         <v>-8.5003544917736207E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="92">
+      <c r="A62" s="85">
         <v>2.2000000000000002</v>
       </c>
       <c r="B62">
-        <f>(A62-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
+        <f t="shared" si="0"/>
         <v>0.67999985600011525</v>
       </c>
-      <c r="C62" s="94">
+      <c r="C62" s="87">
         <v>8.5639152031663723E-2</v>
       </c>
     </row>
@@ -35031,7 +37154,7 @@
         <v>2.233333</v>
       </c>
       <c r="B63">
-        <f>(A63-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
+        <f t="shared" si="0"/>
         <v>0.71999942400046069</v>
       </c>
       <c r="C63" s="52">
@@ -35039,26 +37162,26 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="92">
+      <c r="A64" s="85">
         <v>2.2999999999999998</v>
       </c>
       <c r="B64">
-        <f>(A64-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
+        <f t="shared" si="0"/>
         <v>0.79999976000019168</v>
       </c>
-      <c r="C64" s="94">
+      <c r="C64" s="87">
         <v>-8.3964323663137108E-3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="92">
+      <c r="A65" s="85">
         <v>2.4</v>
       </c>
       <c r="B65">
-        <f>(A65-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
+        <f t="shared" si="0"/>
         <v>0.91999966400026856</v>
       </c>
-      <c r="C65" s="94">
+      <c r="C65" s="87">
         <v>4.7567983235708322E-2</v>
       </c>
     </row>
@@ -35067,7 +37190,7 @@
         <v>2.4666670000000002</v>
       </c>
       <c r="B66">
-        <f>(A66-MIN($A$49:$A$66))/(MAX($A$49:$A$66)-MIN($A$49:$A$66))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C66" s="52">
@@ -35081,40 +37204,40 @@
       <c r="B71" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C71" s="99" t="s">
+      <c r="C71" s="92" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="107">
+      <c r="A72" s="97">
         <v>1.764826</v>
       </c>
       <c r="B72" s="52">
         <f>(A72-MIN($A$72:$A$89))/(MAX($A$72:$A$89)-MIN($A$72:$A$89))</f>
         <v>0</v>
       </c>
-      <c r="C72" s="94">
+      <c r="C72" s="87">
         <v>-6.4825622927846549E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="107">
+      <c r="A73" s="97">
         <v>1.7895049999999999</v>
       </c>
       <c r="B73" s="52">
-        <f t="shared" ref="B73:B89" si="0">(A73-MIN($A$72:$A$89))/(MAX($A$72:$A$89)-MIN($A$72:$A$89))</f>
+        <f t="shared" ref="B73:B89" si="1">(A73-MIN($A$72:$A$89))/(MAX($A$72:$A$89)-MIN($A$72:$A$89))</f>
         <v>4.00007780045155E-2</v>
       </c>
-      <c r="C73" s="94">
+      <c r="C73" s="87">
         <v>3.0495355368931554E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="107">
+      <c r="A74" s="97">
         <v>1.8882190000000001</v>
       </c>
       <c r="B74" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20000064833709655</v>
       </c>
       <c r="C74" s="52">
@@ -35122,35 +37245,35 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="107">
+      <c r="A75" s="97">
         <v>1.9128970000000001</v>
       </c>
       <c r="B75" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2399998054988712</v>
       </c>
-      <c r="C75" s="94">
+      <c r="C75" s="87">
         <v>-9.2896791723802385E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="107">
+      <c r="A76" s="97">
         <v>1.937576</v>
       </c>
       <c r="B76" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28000058350338669</v>
       </c>
-      <c r="C76" s="94">
+      <c r="C76" s="87">
         <v>-1.75758134270243E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="107">
+      <c r="A77" s="97">
         <v>1.937576</v>
       </c>
       <c r="B77" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28000058350338669</v>
       </c>
       <c r="C77" s="52">
@@ -35158,11 +37281,11 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="107">
+      <c r="A78" s="97">
         <v>1.937576</v>
       </c>
       <c r="B78" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28000058350338669</v>
       </c>
       <c r="C78" s="52">
@@ -35170,35 +37293,35 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="107">
+      <c r="A79" s="97">
         <v>1.9622539999999999</v>
       </c>
       <c r="B79" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3199997406651614</v>
       </c>
-      <c r="C79" s="94">
+      <c r="C79" s="87">
         <v>8.7745905225597554E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="107">
+      <c r="A80" s="97">
         <v>2.0116109999999998</v>
       </c>
       <c r="B80" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39999967583145152</v>
       </c>
-      <c r="C80" s="94">
+      <c r="C80" s="87">
         <v>3.8388602174997732E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="107">
+      <c r="A81" s="97">
         <v>2.0362900000000002</v>
       </c>
       <c r="B81" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44000045383596775</v>
       </c>
       <c r="C81" s="52">
@@ -35206,59 +37329,59 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="107">
+      <c r="A82" s="97">
         <v>2.110325</v>
       </c>
       <c r="B82" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.55999954616403258</v>
       </c>
-      <c r="C82" s="94">
+      <c r="C82" s="87">
         <v>8.9674736429642188E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="107">
+      <c r="A83" s="97">
         <v>2.110325</v>
       </c>
       <c r="B83" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.55999954616403258</v>
       </c>
-      <c r="C83" s="94">
+      <c r="C83" s="87">
         <v>-3.0325263570357919E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="107">
+      <c r="A84" s="97">
         <v>2.1350039999999999</v>
       </c>
       <c r="B84" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.60000032416854809</v>
       </c>
-      <c r="C84" s="94">
+      <c r="C84" s="87">
         <v>-8.5003544917736207E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="107">
+      <c r="A85" s="97">
         <v>2.184361</v>
       </c>
       <c r="B85" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68000025933483865</v>
       </c>
-      <c r="C85" s="94">
+      <c r="C85" s="87">
         <v>8.5639152031663723E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="107">
+      <c r="A86" s="97">
         <v>2.2090390000000002</v>
       </c>
       <c r="B86" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7199994164966137</v>
       </c>
       <c r="C86" s="52">
@@ -35266,35 +37389,35 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="107">
+      <c r="A87" s="97">
         <v>2.2583959999999998</v>
       </c>
       <c r="B87" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79999935166290348</v>
       </c>
-      <c r="C87" s="94">
+      <c r="C87" s="87">
         <v>-8.3964323663137108E-3</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="107">
+      <c r="A88" s="97">
         <v>2.3324319999999998</v>
       </c>
       <c r="B88" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92000006483370944</v>
       </c>
-      <c r="C88" s="94">
+      <c r="C88" s="87">
         <v>4.7567983235708322E-2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="107">
+      <c r="A89" s="97">
         <v>2.3817889999999999</v>
       </c>
       <c r="B89" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C89" s="52">
@@ -35312,8 +37435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA7BB54-254F-40B4-8309-1FF97546332D}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35584,7 +37707,7 @@
         <f>_xlfn.FORECAST.LINEAR(F23,G23:G40,F23:F40)</f>
         <v>1.9200676342116392</v>
       </c>
-      <c r="I23" s="98">
+      <c r="I23" s="91">
         <v>-13</v>
       </c>
     </row>
@@ -35601,10 +37724,10 @@
       <c r="E24" s="47">
         <v>2</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="85">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="65">
         <v>1.82</v>
       </c>
       <c r="H24" s="42">
@@ -35628,7 +37751,7 @@
       <c r="E25" s="47">
         <v>3</v>
       </c>
-      <c r="F25" s="92">
+      <c r="F25" s="85">
         <v>2.1</v>
       </c>
       <c r="G25" s="39">
@@ -35643,13 +37766,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="93">
+      <c r="A26" s="86">
         <v>2</v>
       </c>
       <c r="B26">
         <v>1.7791771170917294</v>
       </c>
-      <c r="C26" s="93">
+      <c r="C26" s="86">
         <v>4.082288290827063E-2</v>
       </c>
       <c r="E26" s="47">
@@ -35665,24 +37788,24 @@
         <f>_xlfn.FORECAST.LINEAR(F26,G23:G40,F23:F40)</f>
         <v>2.0891362547555308</v>
       </c>
-      <c r="I26" s="78">
+      <c r="I26" s="71">
         <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="93">
+      <c r="A27" s="86">
         <v>3</v>
       </c>
       <c r="B27">
         <v>2.0609581513315489</v>
       </c>
-      <c r="C27" s="93">
+      <c r="C27" s="86">
         <v>-4.0958151331548898E-2</v>
       </c>
       <c r="E27" s="47">
         <v>5</v>
       </c>
-      <c r="F27" s="92">
+      <c r="F27" s="85">
         <v>1.9</v>
       </c>
       <c r="G27" s="39">
@@ -35692,7 +37815,7 @@
         <f>_xlfn.FORECAST.LINEAR(F27,G23:G40,F23:F40)</f>
         <v>2.0046019444835848</v>
       </c>
-      <c r="I27" s="78">
+      <c r="I27" s="71">
         <v>-4</v>
       </c>
     </row>
@@ -35709,7 +37832,7 @@
       <c r="E28" s="47">
         <v>6</v>
       </c>
-      <c r="F28" s="92">
+      <c r="F28" s="85">
         <v>1.4</v>
       </c>
       <c r="G28" s="39">
@@ -35719,18 +37842,18 @@
         <f>_xlfn.FORECAST.LINEAR(F28,G23:G40,F23:F40)</f>
         <v>1.8637114273636752</v>
       </c>
-      <c r="I28" s="78">
+      <c r="I28" s="71">
         <v>-3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="93">
+      <c r="A29" s="86">
         <v>5</v>
       </c>
       <c r="B29">
         <v>2.0046019444835848</v>
       </c>
-      <c r="C29" s="93">
+      <c r="C29" s="86">
         <v>-8.4601944483584823E-2</v>
       </c>
       <c r="E29" s="47">
@@ -35739,41 +37862,41 @@
       <c r="F29" s="39">
         <v>1.7</v>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="65">
         <v>2.1</v>
       </c>
       <c r="H29" s="42">
         <f>_xlfn.FORECAST.LINEAR(F29,G23:G40,F23:F40)</f>
         <v>1.948245737635621</v>
       </c>
-      <c r="I29" s="78">
+      <c r="I29" s="71">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="93">
+      <c r="A30" s="86">
         <v>6</v>
       </c>
       <c r="B30">
         <v>1.8637114273636752</v>
       </c>
-      <c r="C30" s="93">
+      <c r="C30" s="86">
         <v>-9.3711427363675215E-2</v>
       </c>
       <c r="E30" s="47">
         <v>8</v>
       </c>
-      <c r="F30" s="92">
+      <c r="F30" s="85">
         <v>2</v>
       </c>
       <c r="G30" s="39">
         <v>2.0499999999999998</v>
       </c>
       <c r="H30" s="42">
-        <f t="shared" ref="H24:H40" si="0">_xlfn.FORECAST.LINEAR(F30,G30:G47,F30:F47)</f>
+        <f t="shared" ref="H30" si="0">_xlfn.FORECAST.LINEAR(F30,G30:G47,F30:F47)</f>
         <v>2.1065477497255762</v>
       </c>
-      <c r="I30" s="78">
+      <c r="I30" s="71">
         <v>-7</v>
       </c>
     </row>
@@ -35793,25 +37916,25 @@
       <c r="F31" s="39">
         <v>1.7</v>
       </c>
-      <c r="G31" s="67">
+      <c r="G31" s="65">
         <v>2.0499999999999998</v>
       </c>
       <c r="H31" s="42">
         <f>_xlfn.FORECAST.LINEAR(F31,G23:G40,F23:F40)</f>
         <v>1.948245737635621</v>
       </c>
-      <c r="I31" s="78">
+      <c r="I31" s="71">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="93">
+      <c r="A32" s="86">
         <v>8</v>
       </c>
       <c r="B32">
         <v>2.0327800479075671</v>
       </c>
-      <c r="C32" s="93">
+      <c r="C32" s="86">
         <v>1.7219952092432766E-2</v>
       </c>
       <c r="E32" s="47">
@@ -35844,17 +37967,17 @@
       <c r="E33" s="47">
         <v>11</v>
       </c>
-      <c r="F33" s="92">
+      <c r="F33" s="85">
         <v>2.5</v>
       </c>
-      <c r="G33" s="67">
+      <c r="G33" s="65">
         <v>2.2000000000000002</v>
       </c>
       <c r="H33" s="42">
         <f>_xlfn.FORECAST.LINEAR(F33,G23:G40,F23:F40)</f>
         <v>2.1736705650274768</v>
       </c>
-      <c r="I33" s="91">
+      <c r="I33" s="84">
         <v>-1</v>
       </c>
     </row>
@@ -35871,34 +37994,34 @@
       <c r="E34" s="47">
         <v>12</v>
       </c>
-      <c r="F34" s="92">
+      <c r="F34" s="85">
         <v>1.9</v>
       </c>
-      <c r="G34" s="67">
+      <c r="G34" s="65">
         <v>2.08</v>
       </c>
       <c r="H34" s="42">
         <f>_xlfn.FORECAST.LINEAR(F34,G23:G40,F23:F40)</f>
         <v>2.0046019444835848</v>
       </c>
-      <c r="I34" s="91">
+      <c r="I34" s="84">
         <v>-6</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="93">
+      <c r="A35" s="86">
         <v>11</v>
       </c>
       <c r="B35">
         <v>2.1736705650274768</v>
       </c>
-      <c r="C35" s="93">
+      <c r="C35" s="86">
         <v>2.632943497252338E-2</v>
       </c>
       <c r="E35" s="47">
         <v>13</v>
       </c>
-      <c r="F35" s="92">
+      <c r="F35" s="85">
         <v>2.2000000000000002</v>
       </c>
       <c r="G35" s="39">
@@ -35913,13 +38036,13 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="93">
+      <c r="A36" s="86">
         <v>12</v>
       </c>
       <c r="B36">
         <v>2.0046019444835848</v>
       </c>
-      <c r="C36" s="93">
+      <c r="C36" s="86">
         <v>7.5398055516415319E-2</v>
       </c>
       <c r="E36" s="47">
@@ -35928,25 +38051,25 @@
       <c r="F36" s="39">
         <v>2</v>
       </c>
-      <c r="G36" s="67">
+      <c r="G36" s="65">
         <v>2.27</v>
       </c>
       <c r="H36" s="42">
         <f>_xlfn.FORECAST.LINEAR(F36,G23:G40,F23:F40)</f>
         <v>2.0327800479075671</v>
       </c>
-      <c r="I36" s="78">
+      <c r="I36" s="71">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="93">
+      <c r="A37" s="86">
         <v>13</v>
       </c>
       <c r="B37">
         <v>2.0891362547555308</v>
       </c>
-      <c r="C37" s="93">
+      <c r="C37" s="86">
         <v>-3.9136254755530953E-2</v>
       </c>
       <c r="E37" s="47">
@@ -35955,14 +38078,14 @@
       <c r="F37" s="39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G37" s="67">
+      <c r="G37" s="65">
         <v>2.33</v>
       </c>
       <c r="H37" s="42">
         <f>_xlfn.FORECAST.LINEAR(F37,G23:G40,F23:F40)</f>
         <v>2.0891362547555308</v>
       </c>
-      <c r="I37" s="78">
+      <c r="I37" s="71">
         <v>0</v>
       </c>
     </row>
@@ -35979,10 +38102,10 @@
       <c r="E38" s="47">
         <v>16</v>
       </c>
-      <c r="F38" s="92">
+      <c r="F38" s="85">
         <v>2.9</v>
       </c>
-      <c r="G38" s="67">
+      <c r="G38" s="65">
         <v>2.25</v>
       </c>
       <c r="H38" s="42">
@@ -36009,7 +38132,7 @@
       <c r="F39" s="39">
         <v>2.5</v>
       </c>
-      <c r="G39" s="67">
+      <c r="G39" s="65">
         <v>2.38</v>
       </c>
       <c r="H39" s="42">
@@ -36021,19 +38144,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="93">
+      <c r="A40" s="86">
         <v>16</v>
       </c>
       <c r="B40">
         <v>2.2863829787234042</v>
       </c>
-      <c r="C40" s="93">
+      <c r="C40" s="86">
         <v>-3.6382978723404236E-2</v>
       </c>
       <c r="E40" s="47">
         <v>18</v>
       </c>
-      <c r="F40" s="92">
+      <c r="F40" s="85">
         <v>3</v>
       </c>
       <c r="G40" s="39">
@@ -36059,28 +38182,28 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="97">
+      <c r="A42" s="90">
         <v>18</v>
       </c>
       <c r="B42" s="43">
         <v>2.3145610821473865</v>
       </c>
-      <c r="C42" s="97">
+      <c r="C42" s="90">
         <v>-4.4561082147386522E-2</v>
       </c>
-      <c r="F42" s="71">
+      <c r="F42" s="69">
         <v>1.6</v>
       </c>
       <c r="K42" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="L42" s="68">
+      <c r="L42" s="66">
         <f>CORREL(F23:F40,G23:G40)</f>
         <v>0.6560338679171448</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="68" t="s">
         <v>90</v>
       </c>
       <c r="F43" s="42">
@@ -36090,7 +38213,7 @@
       <c r="K43" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="L43" s="68">
+      <c r="L43" s="66">
         <f>DEVSQ(F23:F40)</f>
         <v>3.9427777777777782</v>
       </c>
@@ -36099,7 +38222,7 @@
       <c r="K44" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="L44" s="68">
+      <c r="L44" s="66">
         <f>DEVSQ(G23:G40)</f>
         <v>0.72740000000000005</v>
       </c>
@@ -36407,16 +38530,16 @@
       <c r="E24" s="47">
         <v>1</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="85">
         <v>1.6333329999999999</v>
       </c>
-      <c r="G24" s="92">
+      <c r="G24" s="85">
         <v>1.6</v>
       </c>
       <c r="H24" s="39">
         <v>1.7</v>
       </c>
-      <c r="I24" s="79">
+      <c r="I24" s="72">
         <f>$B$17+$B$18*F24+$B$19*G24</f>
         <v>1.759344877117206</v>
       </c>
@@ -36425,29 +38548,29 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="99" t="s">
+      <c r="A25" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="92" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="47">
         <v>2</v>
       </c>
-      <c r="F25" s="92">
+      <c r="F25" s="85">
         <v>1.6666669999999999</v>
       </c>
-      <c r="G25" s="92">
+      <c r="G25" s="85">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H25" s="67">
+      <c r="H25" s="65">
         <v>1.82</v>
       </c>
-      <c r="I25" s="79">
-        <f t="shared" ref="I25:I41" si="0">$B$17+$B$18*F25+$B$19*G25</f>
+      <c r="I25" s="72">
+        <f t="shared" ref="I25:I40" si="0">$B$17+$B$18*F25+$B$19*G25</f>
         <v>1.8030115115370975</v>
       </c>
       <c r="J25" s="38">
@@ -36455,13 +38578,13 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="94">
+      <c r="A26" s="87">
         <v>1</v>
       </c>
       <c r="B26" s="52">
         <v>1.759344877117206</v>
       </c>
-      <c r="C26" s="94">
+      <c r="C26" s="87">
         <v>-5.9344877117206041E-2</v>
       </c>
       <c r="E26" s="47">
@@ -36470,13 +38593,13 @@
       <c r="F26" s="39">
         <v>1.8</v>
       </c>
-      <c r="G26" s="66">
+      <c r="G26" s="39">
         <v>2.1</v>
       </c>
-      <c r="H26" s="67">
+      <c r="H26" s="65">
         <v>2.02</v>
       </c>
-      <c r="I26" s="79">
+      <c r="I26" s="72">
         <f t="shared" si="0"/>
         <v>1.8748057765506771</v>
       </c>
@@ -36485,32 +38608,32 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="94">
+      <c r="A27" s="87">
         <v>2</v>
       </c>
       <c r="B27" s="52">
         <v>1.8030115115370975</v>
       </c>
-      <c r="C27" s="94">
+      <c r="C27" s="87">
         <v>1.6988488462902573E-2</v>
       </c>
       <c r="E27" s="47">
         <v>4</v>
       </c>
-      <c r="F27" s="92">
+      <c r="F27" s="85">
         <v>1.8333330000000001</v>
       </c>
-      <c r="G27" s="92">
+      <c r="G27" s="85">
         <v>2.2000000000000002</v>
       </c>
       <c r="H27" s="39">
         <v>1.82</v>
       </c>
-      <c r="I27" s="79">
+      <c r="I27" s="72">
         <f t="shared" si="0"/>
         <v>1.897897638183895</v>
       </c>
-      <c r="J27" s="78">
+      <c r="J27" s="71">
         <v>-1</v>
       </c>
     </row>
@@ -36527,31 +38650,31 @@
       <c r="E28" s="47">
         <v>5</v>
       </c>
-      <c r="F28" s="92">
+      <c r="F28" s="85">
         <v>1.8666670000000001</v>
       </c>
-      <c r="G28" s="92">
+      <c r="G28" s="85">
         <v>1.9</v>
       </c>
-      <c r="H28" s="67">
+      <c r="H28" s="65">
         <v>1.92</v>
       </c>
-      <c r="I28" s="79">
+      <c r="I28" s="72">
         <f t="shared" si="0"/>
         <v>1.9347062802194588</v>
       </c>
-      <c r="J28" s="91">
+      <c r="J28" s="84">
         <v>-4</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="94">
+      <c r="A29" s="87">
         <v>4</v>
       </c>
       <c r="B29" s="52">
         <v>1.897897638183895</v>
       </c>
-      <c r="C29" s="94">
+      <c r="C29" s="87">
         <v>-7.7897638183894946E-2</v>
       </c>
       <c r="E29" s="47">
@@ -36560,28 +38683,28 @@
       <c r="F29" s="39">
         <v>1.8666670000000001</v>
       </c>
-      <c r="G29" s="66">
+      <c r="G29" s="39">
         <v>1.4</v>
       </c>
       <c r="H29" s="39">
         <v>1.77</v>
       </c>
-      <c r="I29" s="79">
+      <c r="I29" s="72">
         <f t="shared" si="0"/>
         <v>1.9518512611802776</v>
       </c>
-      <c r="J29" s="78">
+      <c r="J29" s="71">
         <v>-3</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="94">
+      <c r="A30" s="87">
         <v>5</v>
       </c>
       <c r="B30" s="52">
         <v>1.9347062802194588</v>
       </c>
-      <c r="C30" s="94">
+      <c r="C30" s="87">
         <v>-1.4706280219458856E-2</v>
       </c>
       <c r="E30" s="47">
@@ -36593,14 +38716,14 @@
       <c r="G30" s="39">
         <v>1.7</v>
       </c>
-      <c r="H30" s="67">
+      <c r="H30" s="65">
         <v>2.1</v>
       </c>
-      <c r="I30" s="79">
+      <c r="I30" s="72">
         <f t="shared" si="0"/>
         <v>1.9415642726037865</v>
       </c>
-      <c r="J30" s="78">
+      <c r="J30" s="71">
         <v>3</v>
       </c>
     </row>
@@ -36617,20 +38740,20 @@
       <c r="E31" s="47">
         <v>8</v>
       </c>
-      <c r="F31" s="92">
+      <c r="F31" s="85">
         <v>1.9</v>
       </c>
-      <c r="G31" s="92">
+      <c r="G31" s="85">
         <v>2</v>
       </c>
-      <c r="H31" s="67">
+      <c r="H31" s="65">
         <v>2.0499999999999998</v>
       </c>
-      <c r="I31" s="79">
+      <c r="I31" s="72">
         <f t="shared" si="0"/>
         <v>1.9577981418526766</v>
       </c>
-      <c r="J31" s="91">
+      <c r="J31" s="84">
         <v>-7</v>
       </c>
     </row>
@@ -36647,34 +38770,34 @@
       <c r="E32" s="47">
         <v>9</v>
       </c>
-      <c r="F32" s="92">
+      <c r="F32" s="85">
         <v>1.9666669999999999</v>
       </c>
-      <c r="G32" s="92">
+      <c r="G32" s="85">
         <v>1.7</v>
       </c>
-      <c r="H32" s="67">
+      <c r="H32" s="65">
         <v>2.0499999999999998</v>
       </c>
-      <c r="I32" s="79">
+      <c r="I32" s="72">
         <f t="shared" si="0"/>
         <v>2.0211276417136221</v>
       </c>
-      <c r="J32" s="91">
+      <c r="J32" s="84">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="94">
+      <c r="A33" s="87">
         <v>8</v>
       </c>
       <c r="B33" s="52">
         <v>1.9577981418526766</v>
       </c>
-      <c r="C33" s="94">
+      <c r="C33" s="87">
         <v>9.2201858147323179E-2</v>
       </c>
-      <c r="D33" s="100"/>
+      <c r="D33" s="93"/>
       <c r="E33" s="47">
         <v>10</v>
       </c>
@@ -36687,7 +38810,7 @@
       <c r="H33" s="39">
         <v>1.82</v>
       </c>
-      <c r="I33" s="79">
+      <c r="I33" s="72">
         <f t="shared" si="0"/>
         <v>2.0305035185781843</v>
       </c>
@@ -36696,32 +38819,32 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="94">
+      <c r="A34" s="87">
         <v>9</v>
       </c>
       <c r="B34" s="52">
         <v>2.0211276417136221</v>
       </c>
-      <c r="C34" s="94">
+      <c r="C34" s="87">
         <v>2.8872358286377686E-2</v>
       </c>
       <c r="E34" s="47">
         <v>11</v>
       </c>
-      <c r="F34" s="92">
+      <c r="F34" s="85">
         <v>2.1</v>
       </c>
-      <c r="G34" s="92">
+      <c r="G34" s="85">
         <v>2.5</v>
       </c>
-      <c r="H34" s="67">
+      <c r="H34" s="65">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I34" s="79">
+      <c r="I34" s="72">
         <f t="shared" si="0"/>
         <v>2.0997798991115291</v>
       </c>
-      <c r="J34" s="91">
+      <c r="J34" s="84">
         <v>-1</v>
       </c>
     </row>
@@ -36738,46 +38861,46 @@
       <c r="E35" s="47">
         <v>12</v>
       </c>
-      <c r="F35" s="92">
+      <c r="F35" s="85">
         <v>2.1</v>
       </c>
-      <c r="G35" s="92">
+      <c r="G35" s="85">
         <v>1.9</v>
       </c>
       <c r="H35" s="39">
         <v>2.08</v>
       </c>
-      <c r="I35" s="79">
+      <c r="I35" s="72">
         <f t="shared" si="0"/>
         <v>2.1203538762645118</v>
       </c>
-      <c r="J35" s="91">
+      <c r="J35" s="84">
         <v>-6</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="94">
+      <c r="A36" s="87">
         <v>11</v>
       </c>
       <c r="B36" s="52">
         <v>2.0997798991115291</v>
       </c>
-      <c r="C36" s="94">
+      <c r="C36" s="87">
         <v>0.10022010088847111</v>
       </c>
       <c r="E36" s="47">
         <v>13</v>
       </c>
-      <c r="F36" s="92">
+      <c r="F36" s="85">
         <v>2.1333329999999999</v>
       </c>
-      <c r="G36" s="92">
+      <c r="G36" s="85">
         <v>2.2000000000000002</v>
       </c>
       <c r="H36" s="39">
         <v>2.0499999999999998</v>
       </c>
-      <c r="I36" s="79">
+      <c r="I36" s="72">
         <f t="shared" si="0"/>
         <v>2.1365877455134017</v>
       </c>
@@ -36786,43 +38909,43 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="94">
+      <c r="A37" s="87">
         <v>12</v>
       </c>
       <c r="B37" s="52">
         <v>2.1203538762645118</v>
       </c>
-      <c r="C37" s="94">
+      <c r="C37" s="87">
         <v>-4.0353876264511701E-2</v>
       </c>
       <c r="E37" s="47">
         <v>14</v>
       </c>
-      <c r="F37" s="92">
+      <c r="F37" s="85">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G37" s="92">
+      <c r="G37" s="85">
         <v>2</v>
       </c>
-      <c r="H37" s="67">
+      <c r="H37" s="65">
         <v>2.27</v>
       </c>
-      <c r="I37" s="79">
+      <c r="I37" s="72">
         <f t="shared" si="0"/>
         <v>2.1964882491821838</v>
       </c>
-      <c r="J37" s="91">
+      <c r="J37" s="84">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="94">
+      <c r="A38" s="87">
         <v>13</v>
       </c>
       <c r="B38" s="52">
         <v>2.1365877455134017</v>
       </c>
-      <c r="C38" s="94">
+      <c r="C38" s="87">
         <v>-8.658774551340187E-2</v>
       </c>
       <c r="E38" s="47">
@@ -36834,40 +38957,40 @@
       <c r="G38" s="39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H38" s="67">
+      <c r="H38" s="65">
         <v>2.33</v>
       </c>
-      <c r="I38" s="79">
+      <c r="I38" s="72">
         <f t="shared" si="0"/>
         <v>2.2161511146232371</v>
       </c>
-      <c r="J38" s="78">
+      <c r="J38" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="94">
+      <c r="A39" s="87">
         <v>14</v>
       </c>
       <c r="B39" s="52">
         <v>2.1964882491821838</v>
       </c>
-      <c r="C39" s="94">
+      <c r="C39" s="87">
         <v>7.3511750817816246E-2</v>
       </c>
       <c r="E39" s="47">
         <v>16</v>
       </c>
-      <c r="F39" s="92">
+      <c r="F39" s="85">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G39" s="92">
+      <c r="G39" s="85">
         <v>2.9</v>
       </c>
-      <c r="H39" s="67">
+      <c r="H39" s="65">
         <v>2.25</v>
       </c>
-      <c r="I39" s="79">
+      <c r="I39" s="72">
         <f t="shared" si="0"/>
         <v>2.2451906525625454</v>
       </c>
@@ -36888,16 +39011,16 @@
       <c r="E40" s="47">
         <v>17</v>
       </c>
-      <c r="F40" s="92">
+      <c r="F40" s="85">
         <v>2.4</v>
       </c>
-      <c r="G40" s="92">
+      <c r="G40" s="85">
         <v>2.5</v>
       </c>
-      <c r="H40" s="67">
+      <c r="H40" s="65">
         <v>2.38</v>
       </c>
-      <c r="I40" s="79">
+      <c r="I40" s="72">
         <f t="shared" si="0"/>
         <v>2.3384700064410358</v>
       </c>
@@ -36906,13 +39029,13 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="94">
+      <c r="A41" s="87">
         <v>16</v>
       </c>
       <c r="B41" s="52">
         <v>2.2451906525625454</v>
       </c>
-      <c r="C41" s="94">
+      <c r="C41" s="87">
         <v>4.8093474374546474E-3</v>
       </c>
       <c r="E41" s="47">
@@ -36921,13 +39044,13 @@
       <c r="F41" s="39">
         <v>2.4666670000000002</v>
       </c>
-      <c r="G41" s="66">
+      <c r="G41" s="39">
         <v>3</v>
       </c>
       <c r="H41" s="39">
         <v>2.27</v>
       </c>
-      <c r="I41" s="79">
+      <c r="I41" s="72">
         <f>$B$17+$B$18*F41+$B$19*G41</f>
         <v>2.3743675367646713</v>
       </c>
@@ -36937,26 +39060,26 @@
       <c r="L41" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="M41" s="72">
+      <c r="M41" s="70">
         <f>CORREL(F24:F41,G24:G41)</f>
         <v>0.80025389915716849</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="94">
+      <c r="A42" s="87">
         <v>17</v>
       </c>
       <c r="B42" s="52">
         <v>2.3384700064410358</v>
       </c>
-      <c r="C42" s="94">
+      <c r="C42" s="87">
         <v>4.152999355896414E-2</v>
       </c>
-      <c r="E42" s="105"/>
+      <c r="E42" s="96"/>
       <c r="L42" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="M42" s="72">
+      <c r="M42" s="70">
         <f>CORREL(F24:F41,H24:H41)</f>
         <v>0.85565499870263673</v>
       </c>
@@ -36971,26 +39094,23 @@
       <c r="C43" s="43">
         <v>-0.10436753676467125</v>
       </c>
-      <c r="E43" s="101"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="106"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="94"/>
       <c r="L43" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="M43" s="72">
+      <c r="M43" s="70">
         <f>CORREL(G24:G41,H24:H41)</f>
         <v>0.6560338679171448</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E44" s="103"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="101"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="95"/>
       <c r="L44" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="M44" s="72">
+      <c r="M44" s="70">
         <f>DEVSQ(F24:F41)</f>
         <v>0.97160482469244447</v>
       </c>
@@ -36999,7 +39119,7 @@
       <c r="L45" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="M45" s="72">
+      <c r="M45" s="70">
         <f>DEVSQ(G24:G41)</f>
         <v>3.9427777777777782</v>
       </c>
@@ -37008,7 +39128,7 @@
       <c r="L46" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="M46" s="72">
+      <c r="M46" s="70">
         <f>DEVSQ(H24:H41)</f>
         <v>0.72740000000000005</v>
       </c>
@@ -42838,7 +44958,7 @@
       </c>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>89</v>
       </c>
       <c r="C3" s="58">
@@ -42858,7 +44978,7 @@
       <c r="G3" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="64" t="s">
         <v>89</v>
       </c>
       <c r="J3" s="58">
@@ -42878,7 +44998,7 @@
       <c r="N3" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="65" t="s">
+      <c r="P3" s="64" t="s">
         <v>89</v>
       </c>
       <c r="Q3" s="58">
@@ -42898,7 +45018,7 @@
       <c r="U3" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="65" t="s">
+      <c r="W3" s="64" t="s">
         <v>89</v>
       </c>
       <c r="X3" s="58">
@@ -42918,7 +45038,7 @@
       <c r="AB3" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="65" t="s">
+      <c r="AD3" s="64" t="s">
         <v>89</v>
       </c>
       <c r="AE3" s="58"/>
@@ -42934,7 +45054,7 @@
       <c r="AI3" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="AK3" s="65" t="s">
+      <c r="AK3" s="64" t="s">
         <v>89</v>
       </c>
       <c r="AL3" s="58"/>
@@ -42952,7 +45072,7 @@
       </c>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="C4" s="62"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="61" t="s">
         <v>87</v>
       </c>
@@ -42967,7 +45087,7 @@
         <v>1.85</v>
       </c>
       <c r="I4" s="34"/>
-      <c r="J4" s="62"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="61" t="s">
         <v>87</v>
       </c>
@@ -42981,7 +45101,7 @@
       <c r="N4" s="56">
         <v>1.81</v>
       </c>
-      <c r="Q4" s="62"/>
+      <c r="Q4" s="34"/>
       <c r="R4" s="61" t="s">
         <v>87</v>
       </c>
@@ -42996,7 +45116,7 @@
         <v>1.89</v>
       </c>
       <c r="W4" s="34"/>
-      <c r="X4" s="62"/>
+      <c r="X4" s="34"/>
       <c r="Y4" s="61" t="s">
         <v>87</v>
       </c>
@@ -43011,7 +45131,7 @@
         <v>1.88</v>
       </c>
       <c r="AD4" s="34"/>
-      <c r="AE4" s="62"/>
+      <c r="AE4" s="34"/>
       <c r="AF4" s="61" t="s">
         <v>87</v>
       </c>
@@ -43022,7 +45142,7 @@
       </c>
       <c r="AI4" s="56"/>
       <c r="AK4" s="34"/>
-      <c r="AL4" s="62"/>
+      <c r="AL4" s="34"/>
       <c r="AM4" s="61" t="s">
         <v>87</v>
       </c>
@@ -43036,10 +45156,10 @@
     <row r="5" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="63">
         <f>F4-F3</f>
         <v>5.833333333333357E-2</v>
       </c>
@@ -43047,31 +45167,31 @@
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="64">
+      <c r="M5" s="63">
         <f>M3-M4</f>
         <v>0</v>
       </c>
       <c r="N5" s="34"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
-      <c r="S5" s="63" t="s">
+      <c r="S5" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="T5" s="64">
+      <c r="T5" s="63">
         <f>T3-T4</f>
         <v>-2.4999999999999911E-2</v>
       </c>
-      <c r="U5" s="69"/>
+      <c r="U5" s="67"/>
       <c r="W5" s="34"/>
       <c r="X5" s="34"/>
       <c r="Y5" s="34"/>
-      <c r="Z5" s="63" t="s">
+      <c r="Z5" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="AA5" s="64">
+      <c r="AA5" s="63">
         <f>AA3-AA4</f>
         <v>-3.3333333333333659E-2</v>
       </c>
@@ -43079,10 +45199,10 @@
       <c r="AD5" s="34"/>
       <c r="AE5" s="34"/>
       <c r="AF5" s="34"/>
-      <c r="AG5" s="63" t="s">
+      <c r="AG5" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="AH5" s="64">
+      <c r="AH5" s="63">
         <f>AH3-AH4</f>
         <v>0</v>
       </c>
@@ -43090,10 +45210,10 @@
       <c r="AK5" s="34"/>
       <c r="AL5" s="34"/>
       <c r="AM5" s="34"/>
-      <c r="AN5" s="63" t="s">
+      <c r="AN5" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="AO5" s="64">
+      <c r="AO5" s="63">
         <f>AO3-AO4</f>
         <v>0</v>
       </c>
@@ -43185,7 +45305,7 @@
       </c>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>89</v>
       </c>
       <c r="C9" s="58">
@@ -43205,7 +45325,7 @@
       <c r="G9" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="64" t="s">
         <v>89</v>
       </c>
       <c r="J9" s="58">
@@ -43225,7 +45345,7 @@
       <c r="N9" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="P9" s="65" t="s">
+      <c r="P9" s="64" t="s">
         <v>89</v>
       </c>
       <c r="Q9" s="58">
@@ -43245,7 +45365,7 @@
       <c r="U9" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="65" t="s">
+      <c r="W9" s="64" t="s">
         <v>89</v>
       </c>
       <c r="X9" s="58"/>
@@ -43261,7 +45381,7 @@
       <c r="AB9" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="AD9" s="65" t="s">
+      <c r="AD9" s="64" t="s">
         <v>89</v>
       </c>
       <c r="AE9" s="58"/>
@@ -43277,7 +45397,7 @@
       <c r="AI9" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="AK9" s="65" t="s">
+      <c r="AK9" s="64" t="s">
         <v>89</v>
       </c>
       <c r="AL9" s="58"/>
@@ -43295,7 +45415,7 @@
       </c>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="C10" s="62"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="61" t="s">
         <v>87</v>
       </c>
@@ -43310,7 +45430,7 @@
         <v>1.91</v>
       </c>
       <c r="I10" s="34"/>
-      <c r="J10" s="62"/>
+      <c r="J10" s="34"/>
       <c r="K10" s="61" t="s">
         <v>87</v>
       </c>
@@ -43324,7 +45444,7 @@
       <c r="N10" s="56">
         <v>1.87</v>
       </c>
-      <c r="Q10" s="62"/>
+      <c r="Q10" s="34"/>
       <c r="R10" s="61" t="s">
         <v>87</v>
       </c>
@@ -43339,7 +45459,7 @@
         <v>1.83</v>
       </c>
       <c r="W10" s="34"/>
-      <c r="X10" s="62"/>
+      <c r="X10" s="34"/>
       <c r="Y10" s="61" t="s">
         <v>87</v>
       </c>
@@ -43350,7 +45470,7 @@
       </c>
       <c r="AB10" s="56"/>
       <c r="AD10" s="34"/>
-      <c r="AE10" s="62"/>
+      <c r="AE10" s="34"/>
       <c r="AF10" s="61" t="s">
         <v>87</v>
       </c>
@@ -43361,7 +45481,7 @@
       </c>
       <c r="AI10" s="56"/>
       <c r="AK10" s="34"/>
-      <c r="AL10" s="62"/>
+      <c r="AL10" s="34"/>
       <c r="AM10" s="61" t="s">
         <v>87</v>
       </c>
@@ -43375,10 +45495,10 @@
     <row r="11" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="63">
         <f>F9-F10</f>
         <v>-0.10833333333333339</v>
       </c>
@@ -43386,20 +45506,20 @@
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
-      <c r="L11" s="63" t="s">
+      <c r="L11" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="M11" s="64">
+      <c r="M11" s="63">
         <f>M9-M10</f>
         <v>2.4999999999999467E-2</v>
       </c>
       <c r="N11" s="34"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
-      <c r="S11" s="63" t="s">
+      <c r="S11" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="64">
+      <c r="T11" s="63">
         <f>T9-T10</f>
         <v>6.666666666666643E-2</v>
       </c>
@@ -43407,10 +45527,10 @@
       <c r="W11" s="34"/>
       <c r="X11" s="34"/>
       <c r="Y11" s="34"/>
-      <c r="Z11" s="63" t="s">
+      <c r="Z11" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="AA11" s="64">
+      <c r="AA11" s="63">
         <f>AA9-AA10</f>
         <v>0</v>
       </c>
@@ -43418,10 +45538,10 @@
       <c r="AD11" s="34"/>
       <c r="AE11" s="34"/>
       <c r="AF11" s="34"/>
-      <c r="AG11" s="63" t="s">
+      <c r="AG11" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="AH11" s="64">
+      <c r="AH11" s="63">
         <f>AH9-AH10</f>
         <v>0</v>
       </c>
@@ -43429,10 +45549,10 @@
       <c r="AK11" s="34"/>
       <c r="AL11" s="34"/>
       <c r="AM11" s="34"/>
-      <c r="AN11" s="63" t="s">
+      <c r="AN11" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="AO11" s="64">
+      <c r="AO11" s="63">
         <f>AO9-AO10</f>
         <v>0</v>
       </c>
@@ -43536,7 +45656,7 @@
       </c>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="64" t="s">
         <v>89</v>
       </c>
       <c r="C15" s="58">
@@ -43556,7 +45676,7 @@
       <c r="G15" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="65" t="s">
+      <c r="I15" s="64" t="s">
         <v>89</v>
       </c>
       <c r="J15" s="58">
@@ -43577,7 +45697,7 @@
         <v>49</v>
       </c>
       <c r="O15" s="34"/>
-      <c r="P15" s="65" t="s">
+      <c r="P15" s="64" t="s">
         <v>89</v>
       </c>
       <c r="Q15" s="58">
@@ -43597,7 +45717,7 @@
       <c r="U15" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="W15" s="65" t="s">
+      <c r="W15" s="64" t="s">
         <v>89</v>
       </c>
       <c r="X15" s="58"/>
@@ -43613,7 +45733,7 @@
       <c r="AB15" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="AD15" s="65" t="s">
+      <c r="AD15" s="64" t="s">
         <v>89</v>
       </c>
       <c r="AE15" s="58"/>
@@ -43629,7 +45749,7 @@
       <c r="AI15" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="AK15" s="65" t="s">
+      <c r="AK15" s="64" t="s">
         <v>89</v>
       </c>
       <c r="AL15" s="58"/>
@@ -43647,7 +45767,7 @@
       </c>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="C16" s="62"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="61" t="s">
         <v>87</v>
       </c>
@@ -43662,7 +45782,7 @@
         <v>1.83</v>
       </c>
       <c r="I16" s="34"/>
-      <c r="J16" s="62"/>
+      <c r="J16" s="34"/>
       <c r="K16" s="61" t="s">
         <v>87</v>
       </c>
@@ -43676,7 +45796,7 @@
       <c r="N16" s="56">
         <v>1.8</v>
       </c>
-      <c r="Q16" s="62"/>
+      <c r="Q16" s="34"/>
       <c r="R16" s="61" t="s">
         <v>87</v>
       </c>
@@ -43691,7 +45811,7 @@
         <v>1.84</v>
       </c>
       <c r="W16" s="34"/>
-      <c r="X16" s="62"/>
+      <c r="X16" s="34"/>
       <c r="Y16" s="61" t="s">
         <v>87</v>
       </c>
@@ -43702,7 +45822,7 @@
       </c>
       <c r="AB16" s="56"/>
       <c r="AD16" s="34"/>
-      <c r="AE16" s="62"/>
+      <c r="AE16" s="34"/>
       <c r="AF16" s="61" t="s">
         <v>87</v>
       </c>
@@ -43713,7 +45833,7 @@
       </c>
       <c r="AI16" s="56"/>
       <c r="AK16" s="34"/>
-      <c r="AL16" s="62"/>
+      <c r="AL16" s="34"/>
       <c r="AM16" s="61" t="s">
         <v>87</v>
       </c>
@@ -43727,10 +45847,10 @@
     <row r="17" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="63">
         <f>F15-F16</f>
         <v>4.1666666666666075E-2</v>
       </c>
@@ -43738,20 +45858,20 @@
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
-      <c r="L17" s="63" t="s">
+      <c r="L17" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="M17" s="64">
+      <c r="M17" s="63">
         <f>M15-M16</f>
         <v>4.1666666666666963E-2</v>
       </c>
       <c r="N17" s="34"/>
       <c r="Q17" s="34"/>
       <c r="R17" s="34"/>
-      <c r="S17" s="63" t="s">
+      <c r="S17" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="T17" s="64">
+      <c r="T17" s="63">
         <f>T15-T16</f>
         <v>-1.6666666666666607E-2</v>
       </c>
@@ -43759,10 +45879,10 @@
       <c r="W17" s="34"/>
       <c r="X17" s="34"/>
       <c r="Y17" s="34"/>
-      <c r="Z17" s="63" t="s">
+      <c r="Z17" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="AA17" s="64">
+      <c r="AA17" s="63">
         <f>AA15-AA16</f>
         <v>0</v>
       </c>
@@ -43770,10 +45890,10 @@
       <c r="AD17" s="34"/>
       <c r="AE17" s="34"/>
       <c r="AF17" s="34"/>
-      <c r="AG17" s="63" t="s">
+      <c r="AG17" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="AH17" s="64">
+      <c r="AH17" s="63">
         <f>AH15-AH16</f>
         <v>0</v>
       </c>
@@ -43781,10 +45901,10 @@
       <c r="AK17" s="34"/>
       <c r="AL17" s="34"/>
       <c r="AM17" s="34"/>
-      <c r="AN17" s="63" t="s">
+      <c r="AN17" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="AO17" s="64">
+      <c r="AO17" s="63">
         <f>AO15-AO16</f>
         <v>0</v>
       </c>
@@ -43869,7 +45989,7 @@
       </c>
     </row>
     <row r="21" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="64" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="58">
@@ -43889,7 +46009,7 @@
       <c r="G21" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="65" t="s">
+      <c r="I21" s="64" t="s">
         <v>89</v>
       </c>
       <c r="J21" s="58">
@@ -43909,7 +46029,7 @@
       <c r="N21" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="P21" s="65" t="s">
+      <c r="P21" s="64" t="s">
         <v>89</v>
       </c>
       <c r="Q21" s="58">
@@ -43929,7 +46049,7 @@
       <c r="U21" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="W21" s="65" t="s">
+      <c r="W21" s="64" t="s">
         <v>89</v>
       </c>
       <c r="X21" s="58"/>
@@ -43945,7 +46065,7 @@
       <c r="AB21" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="AD21" s="65" t="s">
+      <c r="AD21" s="64" t="s">
         <v>89</v>
       </c>
       <c r="AE21" s="58"/>
@@ -43961,7 +46081,7 @@
       <c r="AI21" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="AK21" s="65" t="s">
+      <c r="AK21" s="64" t="s">
         <v>89</v>
       </c>
       <c r="AL21" s="58"/>
@@ -43979,7 +46099,7 @@
       </c>
     </row>
     <row r="22" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="C22" s="62"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="61" t="s">
         <v>87</v>
       </c>
@@ -43994,7 +46114,7 @@
         <v>1.83</v>
       </c>
       <c r="I22" s="34"/>
-      <c r="J22" s="62"/>
+      <c r="J22" s="34"/>
       <c r="K22" s="61" t="s">
         <v>87</v>
       </c>
@@ -44008,7 +46128,7 @@
       <c r="N22" s="56">
         <v>1.92</v>
       </c>
-      <c r="Q22" s="62"/>
+      <c r="Q22" s="34"/>
       <c r="R22" s="61" t="s">
         <v>87</v>
       </c>
@@ -44023,7 +46143,7 @@
         <v>1.79</v>
       </c>
       <c r="W22" s="34"/>
-      <c r="X22" s="62"/>
+      <c r="X22" s="34"/>
       <c r="Y22" s="61" t="s">
         <v>87</v>
       </c>
@@ -44034,7 +46154,7 @@
       </c>
       <c r="AB22" s="56"/>
       <c r="AD22" s="34"/>
-      <c r="AE22" s="62"/>
+      <c r="AE22" s="34"/>
       <c r="AF22" s="61" t="s">
         <v>87</v>
       </c>
@@ -44045,7 +46165,7 @@
       </c>
       <c r="AI22" s="56"/>
       <c r="AK22" s="34"/>
-      <c r="AL22" s="62"/>
+      <c r="AL22" s="34"/>
       <c r="AM22" s="61" t="s">
         <v>87</v>
       </c>
@@ -44059,10 +46179,10 @@
     <row r="23" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="63">
         <f>F21-F22</f>
         <v>-0.1166666666666667</v>
       </c>
@@ -44070,20 +46190,20 @@
       <c r="I23" s="34"/>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
-      <c r="L23" s="63" t="s">
+      <c r="L23" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="M23" s="64">
+      <c r="M23" s="63">
         <f>M21-M22</f>
         <v>-0.1333333333333333</v>
       </c>
       <c r="N23" s="34"/>
       <c r="Q23" s="34"/>
       <c r="R23" s="34"/>
-      <c r="S23" s="63" t="s">
+      <c r="S23" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="T23" s="64">
+      <c r="T23" s="63">
         <f>T21-T22</f>
         <v>-9.1666666666666785E-2</v>
       </c>
@@ -44091,10 +46211,10 @@
       <c r="W23" s="34"/>
       <c r="X23" s="34"/>
       <c r="Y23" s="34"/>
-      <c r="Z23" s="63" t="s">
+      <c r="Z23" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="AA23" s="64">
+      <c r="AA23" s="63">
         <f>AA21-AA22</f>
         <v>0</v>
       </c>
@@ -44102,10 +46222,10 @@
       <c r="AD23" s="34"/>
       <c r="AE23" s="34"/>
       <c r="AF23" s="34"/>
-      <c r="AG23" s="63" t="s">
+      <c r="AG23" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="AH23" s="64">
+      <c r="AH23" s="63">
         <f>AH21-AH22</f>
         <v>0</v>
       </c>
@@ -44113,10 +46233,10 @@
       <c r="AK23" s="34"/>
       <c r="AL23" s="34"/>
       <c r="AM23" s="34"/>
-      <c r="AN23" s="63" t="s">
+      <c r="AN23" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="AO23" s="64">
+      <c r="AO23" s="63">
         <f>AO21-AO22</f>
         <v>0</v>
       </c>

--- a/1 - No code/docs/Analisys_match_nba.xlsx
+++ b/1 - No code/docs/Analisys_match_nba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PycharmProjects\nba\1 - No code\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AC1E3F-85E2-4A3F-82E1-84B3F84CD770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52518BBA-8F74-4CF6-9556-C7F886A9B095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="772" activeTab="5" xr2:uid="{551C4716-7C71-4BA4-91AC-0CDE482C7BD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="772" activeTab="6" xr2:uid="{551C4716-7C71-4BA4-91AC-0CDE482C7BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Nymburk - Opava" sheetId="3" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="143">
   <si>
     <t>q1</t>
   </si>
@@ -486,6 +486,21 @@
   <si>
     <t>Corr 1-3</t>
   </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>Range Total</t>
+  </si>
+  <si>
+    <t>Range Q1-Q2</t>
+  </si>
+  <si>
+    <t>Range Q1-Q3</t>
+  </si>
+  <si>
+    <t>Range Q2-Q3</t>
+  </si>
 </sst>
 </file>
 
@@ -705,7 +720,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -785,11 +800,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1152,11 +1226,72 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1296,6 +1431,364 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -7372,8 +7865,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -7873,8 +8367,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -8368,8 +8863,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -26929,38 +27425,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64A52F8A-FD08-448E-A26A-76A8C69B4176}" name="Tabla1" displayName="Tabla1" ref="D24:P44" totalsRowShown="0" headerRowDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64A52F8A-FD08-448E-A26A-76A8C69B4176}" name="Tabla1" displayName="Tabla1" ref="D24:P44" totalsRowShown="0" headerRowDxfId="47" tableBorderDxfId="46">
   <autoFilter ref="D24:P44" xr:uid="{64A52F8A-FD08-448E-A26A-76A8C69B4176}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D25:P44">
     <sortCondition ref="H24:H44"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C498B744-819C-4C30-AD89-8D010C8DD57F}" name="Columna1" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{963426E7-A6EC-4E2B-8FA8-4C25DE6F27F1}" name="AVG_Q1_Q3" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{022AE098-8152-4412-B21F-798053AB0FEF}" name="Diff_Q3" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{C498B744-819C-4C30-AD89-8D010C8DD57F}" name="Columna1" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{963426E7-A6EC-4E2B-8FA8-4C25DE6F27F1}" name="AVG_Q1_Q3" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{022AE098-8152-4412-B21F-798053AB0FEF}" name="Diff_Q3" dataDxfId="43"/>
     <tableColumn id="4" xr3:uid="{6C751D08-5075-4887-8AC2-66C658B612F6}" name="Diff_Final"/>
-    <tableColumn id="5" xr3:uid="{61687A36-C0A6-4149-A42E-70B9983F7488}" name="AVG_MATCH" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{BC05FD90-7F89-41ED-AADC-4604DC568D8A}" name="Columna3" dataDxfId="27">
+    <tableColumn id="5" xr3:uid="{61687A36-C0A6-4149-A42E-70B9983F7488}" name="AVG_MATCH" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{BC05FD90-7F89-41ED-AADC-4604DC568D8A}" name="Columna3" dataDxfId="41">
       <calculatedColumnFormula>(Tabla1[[#This Row],[AVG_MATCH]]-$H$47)/$H$50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{49A84104-9446-489E-8C61-2ED6D92CC866}" name="Pronóstico" dataDxfId="26">
+    <tableColumn id="6" xr3:uid="{49A84104-9446-489E-8C61-2ED6D92CC866}" name="Pronóstico" dataDxfId="40">
       <calculatedColumnFormula xml:space="preserve"> $B$17+$B$18*E25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EE4C6112-9943-470C-A96A-053C93E3455B}" name="Pronostico - sdt_error" dataDxfId="25">
+    <tableColumn id="7" xr3:uid="{EE4C6112-9943-470C-A96A-053C93E3455B}" name="Pronostico - sdt_error" dataDxfId="39">
       <calculatedColumnFormula>J25-$B$7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D66B6166-C397-49A9-996D-C2F46C07FF76}" name="Pronostico + sdt_error" dataDxfId="24">
+    <tableColumn id="8" xr3:uid="{D66B6166-C397-49A9-996D-C2F46C07FF76}" name="Pronostico + sdt_error" dataDxfId="38">
       <calculatedColumnFormula>J25+$B$7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{44A8EC7F-DA8F-483C-8272-4B6D26503747}" name="Diferencia entre el pronostico y avg_q1_q3" dataDxfId="23">
+    <tableColumn id="9" xr3:uid="{44A8EC7F-DA8F-483C-8272-4B6D26503747}" name="Diferencia entre el pronostico y avg_q1_q3" dataDxfId="37">
       <calculatedColumnFormula>J25-E25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5ACA37FE-8420-4221-B5C6-EE61DD3F44FC}" name="↑ Avg_match" dataDxfId="22">
+    <tableColumn id="10" xr3:uid="{5ACA37FE-8420-4221-B5C6-EE61DD3F44FC}" name="↑ Avg_match" dataDxfId="36">
       <calculatedColumnFormula>H25-E25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{F7F7B7FE-A536-4884-A0E7-B355357E46C1}" name="Is_Win" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{82641514-7132-414E-BFB3-1A8A2F1124A6}" name="Columna2" dataDxfId="20">
+    <tableColumn id="11" xr3:uid="{F7F7B7FE-A536-4884-A0E7-B355357E46C1}" name="Is_Win" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{82641514-7132-414E-BFB3-1A8A2F1124A6}" name="Columna2" dataDxfId="34">
       <calculatedColumnFormula>Tabla1[[#This Row],[AVG_MATCH]]-H24</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{485E2BCA-19BE-4688-813A-5AC9E231C9DE}" name="Tabla2" displayName="Tabla2" ref="W3:AE12" totalsRowShown="0" headerRowDxfId="25" dataDxfId="26" headerRowBorderDxfId="32" tableBorderDxfId="33" totalsRowBorderDxfId="31">
+  <autoFilter ref="W3:AE12" xr:uid="{485E2BCA-19BE-4688-813A-5AC9E231C9DE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W4:AB12">
+    <sortCondition ref="Z3:Z12"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{2671FE0E-309D-4528-9D6D-FFC95152AA55}" name="Q1" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{A506DEDE-3EE5-4B0E-9DAF-049F016C77A5}" name="Q2" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{E3E0F319-5B16-44A3-9BA9-0E50205F8CAC}" name="Q3" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{2871D33B-BA28-4DE8-8EE7-B1EE985FCCD0}" name="Range Total" dataDxfId="27">
+      <calculatedColumnFormula>MAX(W4:Y4)-MIN(W4:Y4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{D8C93832-4F9A-4763-9AC9-1682B44C2048}" name="Range Q1-Q2" dataDxfId="22">
+      <calculatedColumnFormula>MAX(Tabla2[[#This Row],[Q1]:[Q2]])-MIN(Tabla2[[#This Row],[Q1]:[Q2]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{5C654CAC-82E2-4598-9FD4-CB25ECEBAD11}" name="Range Q1-Q3" dataDxfId="21">
+      <calculatedColumnFormula>MAX(W4,Y4)-MIN(W4,Y4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{7386E846-9504-4E6B-875C-597C51781228}" name="Range Q2-Q3" dataDxfId="0">
+      <calculatedColumnFormula>MAX(X4,Y4)-MIN(X4,Y4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{9F6E5363-5324-4E79-8808-747235B2F644}" name="Media" dataDxfId="24">
+      <calculatedColumnFormula>AVERAGE(W4:Y4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{BD75AC7D-E54B-497D-B8F0-3744796B5162}" name="Std" dataDxfId="23">
+      <calculatedColumnFormula>_xlfn.STDEV.S(W4:Y4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -28042,82 +28571,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="20" priority="19">
       <formula>$D$6&gt;$D$4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$D$6&lt;$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>$E$6&gt;$E$4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$E$6&lt;$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>$F$6&gt;$F$4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$F$6&lt;$F$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>$G$6&gt;$G$4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$G$6&lt;$G$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>$D$12&gt;$D$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$D$12&lt;$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>$E$12&gt;$E$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$E$12&lt;$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>$F$12&gt;$F$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$F$12&lt;$F$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>$G$12&gt;$G$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$G$12&lt;$G$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$H$6&gt;$H$4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$H$6&lt;$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$H$12&gt;$H$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$H$12&lt;$H$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34270,8 +34799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A187434-1317-4278-823E-381B97E2F0CC}">
   <dimension ref="C1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34698,10 +35227,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC76F1D7-E302-4C94-B269-BE3976196AE2}">
-  <dimension ref="A2:M143"/>
+  <dimension ref="A2:AE143"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34711,10 +35240,16 @@
     <col min="4" max="7" width="11.42578125" style="54"/>
     <col min="8" max="8" width="16.85546875" style="54" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" style="104" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="54"/>
+    <col min="10" max="21" width="11.42578125" style="54"/>
+    <col min="22" max="22" width="3.7109375" style="54" customWidth="1"/>
+    <col min="23" max="25" width="11.42578125" style="54"/>
+    <col min="26" max="26" width="14.7109375" style="54" customWidth="1"/>
+    <col min="27" max="27" width="18" style="54" customWidth="1"/>
+    <col min="28" max="29" width="21.28515625" style="54" customWidth="1"/>
+    <col min="30" max="16384" width="11.42578125" style="54"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="H2" s="53" t="s">
         <v>96</v>
       </c>
@@ -34722,7 +35257,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>81</v>
       </c>
@@ -34751,8 +35286,35 @@
       <c r="L3" s="51">
         <v>0</v>
       </c>
+      <c r="W3" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="X3" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y3" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z3" s="129" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA3" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB3" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC3" s="129" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD3" s="129" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE3" s="129" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="56">
         <f>Avg_Match!E25</f>
         <v>1.5333330000000001</v>
@@ -34789,8 +35351,41 @@
         <f t="shared" ref="L4:L23" si="1">_xlfn.NORM.DIST(G4, $G$25,$G$28,1)</f>
         <v>5.4159690365002011E-2</v>
       </c>
+      <c r="W4" s="126">
+        <v>0.7</v>
+      </c>
+      <c r="X4" s="105">
+        <v>1.6</v>
+      </c>
+      <c r="Y4" s="105">
+        <v>1.7</v>
+      </c>
+      <c r="Z4" s="105">
+        <f>MAX(W4:Y4)-MIN(W4:Y4)</f>
+        <v>1</v>
+      </c>
+      <c r="AA4" s="105">
+        <f>MAX(Tabla2[[#This Row],[Q1]:[Q2]])-MIN(Tabla2[[#This Row],[Q1]:[Q2]])</f>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="AB4" s="105">
+        <f t="shared" ref="AB4:AB12" si="2">MAX(W4,Y4)-MIN(W4,Y4)</f>
+        <v>1</v>
+      </c>
+      <c r="AC4" s="134">
+        <f t="shared" ref="AC4:AC12" si="3">MAX(X4,Y4)-MIN(X4,Y4)</f>
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="AD4" s="134">
+        <f>AVERAGE(W4:Y4)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AE4" s="134">
+        <f>_xlfn.STDEV.S(W4:Y4)</f>
+        <v>0.55075705472861014</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="56">
         <f>Avg_Match!E26</f>
         <v>1.8666670000000001</v>
@@ -34812,11 +35407,11 @@
         <v>2</v>
       </c>
       <c r="H5" s="51">
-        <f t="shared" ref="H5:H22" si="2">_xlfn.NORM.DIST(G5,$G$25,$G$28, 1)</f>
+        <f t="shared" ref="H5:H22" si="4">_xlfn.NORM.DIST(G5,$G$25,$G$28, 1)</f>
         <v>7.5392782513985637E-2</v>
       </c>
       <c r="I5" s="121">
-        <f t="shared" ref="I5:I23" si="3">_xlfn.NORM.DIST(G5,$G$25,$G$28, 0)</f>
+        <f t="shared" ref="I5:I23" si="5">_xlfn.NORM.DIST(G5,$G$25,$G$28, 0)</f>
         <v>2.4022715404011696E-2</v>
       </c>
       <c r="K5" s="51">
@@ -34827,8 +35422,41 @@
         <f t="shared" si="1"/>
         <v>7.5392782513985637E-2</v>
       </c>
+      <c r="W5" s="126">
+        <v>1.5</v>
+      </c>
+      <c r="X5" s="105">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="105">
+        <v>0.6</v>
+      </c>
+      <c r="Z5" s="105">
+        <f>MAX(W5:Y5)-MIN(W5:Y5)</f>
+        <v>1.4</v>
+      </c>
+      <c r="AA5" s="107">
+        <f>MAX(Tabla2[[#This Row],[Q1]:[Q2]])-MIN(Tabla2[[#This Row],[Q1]:[Q2]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="AB5" s="127">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="AC5" s="127">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="AD5" s="105">
+        <f>AVERAGE(W5:Y5)</f>
+        <v>1.3666666666666665</v>
+      </c>
+      <c r="AE5" s="105">
+        <f>_xlfn.STDEV.S(W5:Y5)</f>
+        <v>0.70945988845975916</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="56">
         <f>Avg_Match!E27</f>
         <v>1.6333329999999999</v>
@@ -34850,11 +35478,11 @@
         <v>3</v>
       </c>
       <c r="H6" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10244694690818926</v>
       </c>
       <c r="I6" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.019182784072922E-2</v>
       </c>
       <c r="K6" s="51">
@@ -34865,8 +35493,41 @@
         <f t="shared" si="1"/>
         <v>0.10244694690818926</v>
       </c>
+      <c r="W6" s="126">
+        <v>2.1</v>
+      </c>
+      <c r="X6" s="105">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="105">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z6" s="105">
+        <f>MAX(W6:Y6)-MIN(W6:Y6)</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="AA6" s="107">
+        <f>MAX(Tabla2[[#This Row],[Q1]:[Q2]])-MIN(Tabla2[[#This Row],[Q1]:[Q2]])</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AB6" s="127">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999973</v>
+      </c>
+      <c r="AC6" s="127">
+        <f t="shared" si="3"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="AD6" s="105">
+        <f>AVERAGE(W6:Y6)</f>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="AE6" s="105">
+        <f>_xlfn.STDEV.S(W6:Y6)</f>
+        <v>0.15275252316519458</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="56">
         <f>Avg_Match!E28</f>
         <v>1.8333330000000001</v>
@@ -34888,11 +35549,11 @@
         <v>4</v>
       </c>
       <c r="H7" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1359493554098242</v>
       </c>
       <c r="I7" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.687638179856368E-2</v>
       </c>
       <c r="K7" s="51">
@@ -34903,8 +35564,41 @@
         <f t="shared" si="1"/>
         <v>0.1359493554098242</v>
       </c>
+      <c r="W7" s="126">
+        <v>1.4</v>
+      </c>
+      <c r="X7" s="105">
+        <v>1.6</v>
+      </c>
+      <c r="Y7" s="105">
+        <v>1.71</v>
+      </c>
+      <c r="Z7" s="105">
+        <f>MAX(W7:Y7)-MIN(W7:Y7)</f>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="AA7" s="107">
+        <f>MAX(Tabla2[[#This Row],[Q1]:[Q2]])-MIN(Tabla2[[#This Row],[Q1]:[Q2]])</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="AB7" s="127">
+        <f t="shared" si="2"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="AC7" s="127">
+        <f t="shared" si="3"/>
+        <v>0.10999999999999988</v>
+      </c>
+      <c r="AD7" s="105">
+        <f>AVERAGE(W7:Y7)</f>
+        <v>1.57</v>
+      </c>
+      <c r="AE7" s="105">
+        <f>_xlfn.STDEV.S(W7:Y7)</f>
+        <v>0.15716233645501715</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="56">
         <f>Avg_Match!E29</f>
         <v>1.7</v>
@@ -34926,11 +35620,11 @@
         <v>5</v>
       </c>
       <c r="H8" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17627106874985649</v>
       </c>
       <c r="I8" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.3772241374080395E-2</v>
       </c>
       <c r="K8" s="51">
@@ -34941,8 +35635,41 @@
         <f t="shared" si="1"/>
         <v>0.17627106874985649</v>
       </c>
+      <c r="W8" s="126">
+        <v>2.1</v>
+      </c>
+      <c r="X8" s="105">
+        <v>1.89</v>
+      </c>
+      <c r="Y8" s="105">
+        <v>2.4</v>
+      </c>
+      <c r="Z8" s="105">
+        <f>MAX(W8:Y8)-MIN(W8:Y8)</f>
+        <v>0.51</v>
+      </c>
+      <c r="AA8" s="107">
+        <f>MAX(Tabla2[[#This Row],[Q1]:[Q2]])-MIN(Tabla2[[#This Row],[Q1]:[Q2]])</f>
+        <v>0.21000000000000019</v>
+      </c>
+      <c r="AB8" s="127">
+        <f t="shared" si="2"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="AC8" s="127">
+        <f t="shared" si="3"/>
+        <v>0.51</v>
+      </c>
+      <c r="AD8" s="105">
+        <f>AVERAGE(W8:Y8)</f>
+        <v>2.1300000000000003</v>
+      </c>
+      <c r="AE8" s="105">
+        <f>_xlfn.STDEV.S(W8:Y8)</f>
+        <v>0.2563201123595259</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="56">
         <f>Avg_Match!E30</f>
         <v>1.8333330000000001</v>
@@ -34964,11 +35691,11 @@
         <v>6</v>
       </c>
       <c r="H9" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.22343641035541539</v>
       </c>
       <c r="I9" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.0494125397238465E-2</v>
       </c>
       <c r="K9" s="51">
@@ -34979,8 +35706,41 @@
         <f t="shared" si="1"/>
         <v>0.22343641035541539</v>
       </c>
+      <c r="W9" s="126">
+        <v>2.25</v>
+      </c>
+      <c r="X9" s="105">
+        <v>1.8</v>
+      </c>
+      <c r="Y9" s="105">
+        <v>1.5</v>
+      </c>
+      <c r="Z9" s="105">
+        <f>MAX(W9:Y9)-MIN(W9:Y9)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AA9" s="107">
+        <f>MAX(Tabla2[[#This Row],[Q1]:[Q2]])-MIN(Tabla2[[#This Row],[Q1]:[Q2]])</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="AB9" s="127">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="AC9" s="127">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AD9" s="105">
+        <f>AVERAGE(W9:Y9)</f>
+        <v>1.8499999999999999</v>
+      </c>
+      <c r="AE9" s="105">
+        <f>_xlfn.STDEV.S(W9:Y9)</f>
+        <v>0.37749172176353757</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="56">
         <f>Avg_Match!E31</f>
         <v>2</v>
@@ -35002,11 +35762,11 @@
         <v>7</v>
       </c>
       <c r="H10" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.27705656503472276</v>
       </c>
       <c r="I10" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.6607569614147216E-2</v>
       </c>
       <c r="K10" s="51">
@@ -35017,8 +35777,41 @@
         <f t="shared" si="1"/>
         <v>0.27705656503472276</v>
       </c>
+      <c r="W10" s="126">
+        <v>1.98</v>
+      </c>
+      <c r="X10" s="105">
+        <v>1.7</v>
+      </c>
+      <c r="Y10" s="105">
+        <v>1.45</v>
+      </c>
+      <c r="Z10" s="105">
+        <f>MAX(W10:Y10)-MIN(W10:Y10)</f>
+        <v>0.53</v>
+      </c>
+      <c r="AA10" s="107">
+        <f>MAX(Tabla2[[#This Row],[Q1]:[Q2]])-MIN(Tabla2[[#This Row],[Q1]:[Q2]])</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AB10" s="127">
+        <f t="shared" si="2"/>
+        <v>0.53</v>
+      </c>
+      <c r="AC10" s="127">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="AD10" s="105">
+        <f>AVERAGE(W10:Y10)</f>
+        <v>1.71</v>
+      </c>
+      <c r="AE10" s="105">
+        <f>_xlfn.STDEV.S(W10:Y10)</f>
+        <v>0.26514147167125796</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="56">
         <f>Avg_Match!E32</f>
         <v>1.7</v>
@@ -35040,11 +35833,11 @@
         <v>8</v>
       </c>
       <c r="H11" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.33630190872075827</v>
       </c>
       <c r="I11" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.167366403107255E-2</v>
       </c>
       <c r="K11" s="51">
@@ -35055,8 +35848,41 @@
         <f t="shared" si="1"/>
         <v>0.33630190872075827</v>
       </c>
+      <c r="W11" s="126">
+        <v>2.1</v>
+      </c>
+      <c r="X11" s="105">
+        <v>4.3</v>
+      </c>
+      <c r="Y11" s="105">
+        <v>2.5</v>
+      </c>
+      <c r="Z11" s="105">
+        <f>MAX(W11:Y11)-MIN(W11:Y11)</f>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="AA11" s="107">
+        <f>MAX(Tabla2[[#This Row],[Q1]:[Q2]])-MIN(Tabla2[[#This Row],[Q1]:[Q2]])</f>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="AB11" s="127">
+        <f t="shared" si="2"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AC11" s="127">
+        <f t="shared" si="3"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="AD11" s="105">
+        <f>AVERAGE(W11:Y11)</f>
+        <v>2.9666666666666668</v>
+      </c>
+      <c r="AE11" s="105">
+        <f>_xlfn.STDEV.S(W11:Y11)</f>
+        <v>1.1718930554164622</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="56">
         <f>Avg_Match!E33</f>
         <v>1.6666669999999999</v>
@@ -35078,11 +35904,11 @@
         <v>9</v>
       </c>
       <c r="H12" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.39992305283123664</v>
       </c>
       <c r="I12" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.530051075296818E-2</v>
       </c>
       <c r="K12" s="51">
@@ -35093,8 +35919,41 @@
         <f t="shared" si="1"/>
         <v>0.39992305283123664</v>
       </c>
+      <c r="W12" s="130">
+        <v>1.8</v>
+      </c>
+      <c r="X12" s="131">
+        <v>2.15</v>
+      </c>
+      <c r="Y12" s="131">
+        <v>1.5</v>
+      </c>
+      <c r="Z12" s="131">
+        <f>MAX(W12:Y12)-MIN(W12:Y12)</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="AA12" s="132">
+        <f>MAX(Tabla2[[#This Row],[Q1]:[Q2]])-MIN(Tabla2[[#This Row],[Q1]:[Q2]])</f>
+        <v>0.34999999999999987</v>
+      </c>
+      <c r="AB12" s="133">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AC12" s="133">
+        <f t="shared" si="3"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="AD12" s="131">
+        <f>AVERAGE(W12:Y12)</f>
+        <v>1.8166666666666667</v>
+      </c>
+      <c r="AE12" s="131">
+        <f>_xlfn.STDEV.S(W12:Y12)</f>
+        <v>0.32532035493238642</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="56">
         <f>Avg_Match!E34</f>
         <v>1.9</v>
@@ -35120,7 +35979,7 @@
         <v>0.46632331948293798</v>
       </c>
       <c r="I13" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.7193148565541247E-2</v>
       </c>
       <c r="K13" s="51">
@@ -35132,7 +35991,7 @@
         <v>0.46632331948293798</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="56">
         <f>Avg_Match!E35</f>
         <v>1.8333330000000001</v>
@@ -35154,11 +36013,11 @@
         <v>11</v>
       </c>
       <c r="H14" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.53367668051706207</v>
       </c>
       <c r="I14" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.7193148565541247E-2</v>
       </c>
       <c r="K14" s="51">
@@ -35169,8 +36028,11 @@
         <f t="shared" si="1"/>
         <v>0.53367668051706207</v>
       </c>
+      <c r="W14" s="54">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="56">
         <f>Avg_Match!E36</f>
         <v>2</v>
@@ -35192,11 +36054,11 @@
         <v>12</v>
       </c>
       <c r="H15" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.60007694716876336</v>
       </c>
       <c r="I15" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.530051075296818E-2</v>
       </c>
       <c r="K15" s="51">
@@ -35207,8 +36069,20 @@
         <f t="shared" si="1"/>
         <v>0.60007694716876336</v>
       </c>
+      <c r="W15" s="54">
+        <f>W10*$W$14</f>
+        <v>23.759999999999998</v>
+      </c>
+      <c r="X15" s="54">
+        <f t="shared" ref="X15:Y15" si="6">X10*$W$14</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="Y15" s="54">
+        <f>Y10*$W$14</f>
+        <v>17.399999999999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="56">
         <f>Avg_Match!E37</f>
         <v>2.0333329999999998</v>
@@ -35230,11 +36104,11 @@
         <v>13</v>
       </c>
       <c r="H16" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.66369809127924173</v>
       </c>
       <c r="I16" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.167366403107255E-2</v>
       </c>
       <c r="K16" s="51">
@@ -35268,11 +36142,11 @@
         <v>14</v>
       </c>
       <c r="H17" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.72294343496527724</v>
       </c>
       <c r="I17" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.6607569614147216E-2</v>
       </c>
       <c r="K17" s="51">
@@ -35306,11 +36180,11 @@
         <v>15</v>
       </c>
       <c r="H18" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.77656358964458461</v>
       </c>
       <c r="I18" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.0494125397238465E-2</v>
       </c>
       <c r="K18" s="51">
@@ -35348,7 +36222,7 @@
         <v>0.82372893125014346</v>
       </c>
       <c r="I19" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.3772241374080395E-2</v>
       </c>
       <c r="K19" s="51">
@@ -35382,11 +36256,11 @@
         <v>17</v>
       </c>
       <c r="H20" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.86405064459017578</v>
       </c>
       <c r="I20" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.687638179856368E-2</v>
       </c>
       <c r="K20" s="51">
@@ -35420,11 +36294,11 @@
         <v>18</v>
       </c>
       <c r="H21" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.89755305309181077</v>
       </c>
       <c r="I21" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.019182784072922E-2</v>
       </c>
       <c r="K21" s="51">
@@ -35458,11 +36332,11 @@
         <v>19</v>
       </c>
       <c r="H22" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.92460721748601438</v>
       </c>
       <c r="I22" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4022715404011696E-2</v>
       </c>
       <c r="K22" s="51">
@@ -35500,7 +36374,7 @@
         <v>0.94584030963499799</v>
       </c>
       <c r="I23" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.8575750633576825E-2</v>
       </c>
       <c r="K23" s="51">
@@ -35629,7 +36503,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="107">
-        <f t="shared" ref="C34:C65" si="4">B34/D$33</f>
+        <f t="shared" ref="C34:C65" si="7">B34/D$33</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="H34" s="51">
@@ -35645,7 +36519,7 @@
         <v>6</v>
       </c>
       <c r="C35" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
       <c r="H35" s="51">
@@ -35661,7 +36535,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="H36" s="51">
@@ -35677,7 +36551,7 @@
         <v>8</v>
       </c>
       <c r="C37" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="H37" s="51">
@@ -35693,14 +36567,14 @@
         <v>9</v>
       </c>
       <c r="C38" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
       <c r="H38" s="51">
         <v>25</v>
       </c>
       <c r="I38" s="107">
-        <f t="shared" ref="I38:I101" si="5">H38/J$32</f>
+        <f t="shared" ref="I38:I101" si="8">H38/J$32</f>
         <v>0.625</v>
       </c>
     </row>
@@ -35709,14 +36583,14 @@
         <v>10</v>
       </c>
       <c r="C39" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="H39" s="51">
         <v>26</v>
       </c>
       <c r="I39" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.65</v>
       </c>
     </row>
@@ -35725,14 +36599,14 @@
         <v>11</v>
       </c>
       <c r="C40" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.36666666666666664</v>
       </c>
       <c r="H40" s="51">
         <v>27</v>
       </c>
       <c r="I40" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.67500000000000004</v>
       </c>
     </row>
@@ -35741,14 +36615,14 @@
         <v>12</v>
       </c>
       <c r="C41" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="H41" s="51">
         <v>28</v>
       </c>
       <c r="I41" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
     </row>
@@ -35757,14 +36631,14 @@
         <v>13</v>
       </c>
       <c r="C42" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.43333333333333335</v>
       </c>
       <c r="H42" s="51">
         <v>29</v>
       </c>
       <c r="I42" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.72499999999999998</v>
       </c>
     </row>
@@ -35773,14 +36647,14 @@
         <v>14</v>
       </c>
       <c r="C43" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="H43" s="51">
         <v>30</v>
       </c>
       <c r="I43" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
     </row>
@@ -35789,14 +36663,14 @@
         <v>15</v>
       </c>
       <c r="C44" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="H44" s="51">
         <v>31</v>
       </c>
       <c r="I44" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.77500000000000002</v>
       </c>
     </row>
@@ -35805,14 +36679,14 @@
         <v>16</v>
       </c>
       <c r="C45" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="H45" s="51">
         <v>32</v>
       </c>
       <c r="I45" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
     </row>
@@ -35821,14 +36695,14 @@
         <v>17</v>
       </c>
       <c r="C46" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.56666666666666665</v>
       </c>
       <c r="H46" s="51">
         <v>33</v>
       </c>
       <c r="I46" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.82499999999999996</v>
       </c>
     </row>
@@ -35837,14 +36711,14 @@
         <v>18</v>
       </c>
       <c r="C47" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
       <c r="H47" s="51">
         <v>34</v>
       </c>
       <c r="I47" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.85</v>
       </c>
     </row>
@@ -35853,14 +36727,14 @@
         <v>19</v>
       </c>
       <c r="C48" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.6333333333333333</v>
       </c>
       <c r="H48" s="51">
         <v>35</v>
       </c>
       <c r="I48" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.875</v>
       </c>
     </row>
@@ -35869,14 +36743,14 @@
         <v>20</v>
       </c>
       <c r="C49" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H49" s="51">
         <v>36</v>
       </c>
       <c r="I49" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
@@ -35885,14 +36759,14 @@
         <v>21</v>
       </c>
       <c r="C50" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
       <c r="H50" s="51">
         <v>37</v>
       </c>
       <c r="I50" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.92500000000000004</v>
       </c>
     </row>
@@ -35901,14 +36775,14 @@
         <v>22</v>
       </c>
       <c r="C51" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.73333333333333328</v>
       </c>
       <c r="H51" s="51">
         <v>38</v>
       </c>
       <c r="I51" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.95</v>
       </c>
     </row>
@@ -35917,14 +36791,14 @@
         <v>23</v>
       </c>
       <c r="C52" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.76666666666666672</v>
       </c>
       <c r="H52" s="51">
         <v>39</v>
       </c>
       <c r="I52" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.97499999999999998</v>
       </c>
     </row>
@@ -35933,14 +36807,14 @@
         <v>24</v>
       </c>
       <c r="C53" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
       <c r="H53" s="51">
         <v>40</v>
       </c>
       <c r="I53" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -35949,14 +36823,14 @@
         <v>25</v>
       </c>
       <c r="C54" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="H54" s="51">
         <v>41</v>
       </c>
       <c r="I54" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0249999999999999</v>
       </c>
     </row>
@@ -35965,14 +36839,14 @@
         <v>26</v>
       </c>
       <c r="C55" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="H55" s="51">
         <v>42</v>
       </c>
       <c r="I55" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.05</v>
       </c>
     </row>
@@ -35981,14 +36855,14 @@
         <v>27</v>
       </c>
       <c r="C56" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
       <c r="H56" s="51">
         <v>43</v>
       </c>
       <c r="I56" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.075</v>
       </c>
     </row>
@@ -35997,14 +36871,14 @@
         <v>28</v>
       </c>
       <c r="C57" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="H57" s="51">
         <v>44</v>
       </c>
       <c r="I57" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -36013,14 +36887,14 @@
         <v>29</v>
       </c>
       <c r="C58" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.96666666666666667</v>
       </c>
       <c r="H58" s="51">
         <v>45</v>
       </c>
       <c r="I58" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.125</v>
       </c>
     </row>
@@ -36029,14 +36903,14 @@
         <v>30</v>
       </c>
       <c r="C59" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H59" s="51">
         <v>46</v>
       </c>
       <c r="I59" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1499999999999999</v>
       </c>
     </row>
@@ -36045,14 +36919,14 @@
         <v>31</v>
       </c>
       <c r="C60" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0333333333333334</v>
       </c>
       <c r="H60" s="51">
         <v>47</v>
       </c>
       <c r="I60" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.175</v>
       </c>
     </row>
@@ -36061,14 +36935,14 @@
         <v>32</v>
       </c>
       <c r="C61" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0666666666666667</v>
       </c>
       <c r="H61" s="51">
         <v>48</v>
       </c>
       <c r="I61" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2</v>
       </c>
     </row>
@@ -36077,14 +36951,14 @@
         <v>33</v>
       </c>
       <c r="C62" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="H62" s="51">
         <v>49</v>
       </c>
       <c r="I62" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2250000000000001</v>
       </c>
     </row>
@@ -36093,14 +36967,14 @@
         <v>34</v>
       </c>
       <c r="C63" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1333333333333333</v>
       </c>
       <c r="H63" s="51">
         <v>50</v>
       </c>
       <c r="I63" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
     </row>
@@ -36109,14 +36983,14 @@
         <v>35</v>
       </c>
       <c r="C64" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="H64" s="51">
         <v>51</v>
       </c>
       <c r="I64" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2749999999999999</v>
       </c>
     </row>
@@ -36125,14 +36999,14 @@
         <v>36</v>
       </c>
       <c r="C65" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="H65" s="51">
         <v>52</v>
       </c>
       <c r="I65" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
     </row>
@@ -36141,14 +37015,14 @@
         <v>37</v>
       </c>
       <c r="C66" s="107">
-        <f t="shared" ref="C66:C97" si="6">B66/D$33</f>
+        <f t="shared" ref="C66:C97" si="9">B66/D$33</f>
         <v>1.2333333333333334</v>
       </c>
       <c r="H66" s="51">
         <v>53</v>
       </c>
       <c r="I66" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.325</v>
       </c>
     </row>
@@ -36157,14 +37031,14 @@
         <v>38</v>
       </c>
       <c r="C67" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2666666666666666</v>
       </c>
       <c r="H67" s="51">
         <v>54</v>
       </c>
       <c r="I67" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.35</v>
       </c>
     </row>
@@ -36173,14 +37047,14 @@
         <v>39</v>
       </c>
       <c r="C68" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
       <c r="H68" s="51">
         <v>55</v>
       </c>
       <c r="I68" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.375</v>
       </c>
     </row>
@@ -36189,14 +37063,14 @@
         <v>40</v>
       </c>
       <c r="C69" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="H69" s="51">
         <v>56</v>
       </c>
       <c r="I69" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4</v>
       </c>
     </row>
@@ -36205,14 +37079,14 @@
         <v>41</v>
       </c>
       <c r="C70" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3666666666666667</v>
       </c>
       <c r="H70" s="51">
         <v>57</v>
       </c>
       <c r="I70" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.425</v>
       </c>
     </row>
@@ -36221,14 +37095,14 @@
         <v>42</v>
       </c>
       <c r="C71" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="H71" s="51">
         <v>58</v>
       </c>
       <c r="I71" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.45</v>
       </c>
     </row>
@@ -36237,14 +37111,14 @@
         <v>43</v>
       </c>
       <c r="C72" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4333333333333333</v>
       </c>
       <c r="H72" s="51">
         <v>59</v>
       </c>
       <c r="I72" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4750000000000001</v>
       </c>
     </row>
@@ -36253,14 +37127,14 @@
         <v>44</v>
       </c>
       <c r="C73" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4666666666666666</v>
       </c>
       <c r="H73" s="51">
         <v>60</v>
       </c>
       <c r="I73" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
     </row>
@@ -36269,14 +37143,14 @@
         <v>45</v>
       </c>
       <c r="C74" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="H74" s="51">
         <v>61</v>
       </c>
       <c r="I74" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5249999999999999</v>
       </c>
       <c r="J74" s="107">
@@ -36288,7 +37162,7 @@
         <v>46</v>
       </c>
       <c r="C75" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5333333333333334</v>
       </c>
       <c r="D75" s="107">
@@ -36300,7 +37174,7 @@
         <v>62</v>
       </c>
       <c r="I75" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.55</v>
       </c>
     </row>
@@ -36309,7 +37183,7 @@
         <v>47</v>
       </c>
       <c r="C76" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5666666666666667</v>
       </c>
       <c r="D76" s="104"/>
@@ -36319,7 +37193,7 @@
         <v>63</v>
       </c>
       <c r="I76" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.575</v>
       </c>
     </row>
@@ -36328,7 +37202,7 @@
         <v>48</v>
       </c>
       <c r="C77" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.6</v>
       </c>
       <c r="D77" s="104"/>
@@ -36338,7 +37212,7 @@
         <v>64</v>
       </c>
       <c r="I77" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
     </row>
@@ -36347,7 +37221,7 @@
         <v>49</v>
       </c>
       <c r="C78" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.6333333333333333</v>
       </c>
       <c r="D78" s="107">
@@ -36361,7 +37235,7 @@
         <v>65</v>
       </c>
       <c r="I78" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.625</v>
       </c>
     </row>
@@ -36370,14 +37244,14 @@
         <v>50</v>
       </c>
       <c r="C79" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="H79" s="51">
         <v>66</v>
       </c>
       <c r="I79" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.65</v>
       </c>
     </row>
@@ -36386,7 +37260,7 @@
         <v>51</v>
       </c>
       <c r="C80" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.7</v>
       </c>
       <c r="D80" s="107">
@@ -36400,7 +37274,7 @@
         <v>67</v>
       </c>
       <c r="I80" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.675</v>
       </c>
       <c r="J80" s="107">
@@ -36412,14 +37286,14 @@
         <v>52</v>
       </c>
       <c r="C81" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.7333333333333334</v>
       </c>
       <c r="H81" s="51">
         <v>68</v>
       </c>
       <c r="I81" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.7</v>
       </c>
     </row>
@@ -36428,14 +37302,14 @@
         <v>53</v>
       </c>
       <c r="C82" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.7666666666666666</v>
       </c>
       <c r="H82" s="51">
         <v>69</v>
       </c>
       <c r="I82" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.7250000000000001</v>
       </c>
       <c r="J82" s="107">
@@ -36448,14 +37322,14 @@
         <v>54</v>
       </c>
       <c r="C83" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
       <c r="H83" s="51">
         <v>70</v>
       </c>
       <c r="I83" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.75</v>
       </c>
       <c r="J83" s="107">
@@ -36467,7 +37341,7 @@
         <v>55</v>
       </c>
       <c r="C84" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="D84" s="107">
@@ -36483,7 +37357,7 @@
         <v>71</v>
       </c>
       <c r="I84" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.7749999999999999</v>
       </c>
     </row>
@@ -36492,7 +37366,7 @@
         <v>56</v>
       </c>
       <c r="C85" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.8666666666666667</v>
       </c>
       <c r="D85" s="107">
@@ -36504,7 +37378,7 @@
         <v>72</v>
       </c>
       <c r="I85" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="J85" s="107">
@@ -36519,7 +37393,7 @@
         <v>57</v>
       </c>
       <c r="C86" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.9</v>
       </c>
       <c r="D86" s="107">
@@ -36531,7 +37405,7 @@
         <v>73</v>
       </c>
       <c r="I86" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.825</v>
       </c>
     </row>
@@ -36540,7 +37414,7 @@
         <v>58</v>
       </c>
       <c r="C87" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.9333333333333333</v>
       </c>
       <c r="D87" s="104"/>
@@ -36549,7 +37423,7 @@
         <v>74</v>
       </c>
       <c r="I87" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.85</v>
       </c>
       <c r="J87" s="107">
@@ -36561,7 +37435,7 @@
         <v>59</v>
       </c>
       <c r="C88" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.9666666666666666</v>
       </c>
       <c r="D88" s="104"/>
@@ -36570,7 +37444,7 @@
         <v>75</v>
       </c>
       <c r="I88" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.875</v>
       </c>
     </row>
@@ -36579,7 +37453,7 @@
         <v>60</v>
       </c>
       <c r="C89" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D89" s="107">
@@ -36593,7 +37467,7 @@
         <v>76</v>
       </c>
       <c r="I89" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.9</v>
       </c>
       <c r="J89" s="107">
@@ -36605,7 +37479,7 @@
         <v>61</v>
       </c>
       <c r="C90" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.0333333333333332</v>
       </c>
       <c r="D90" s="107">
@@ -36616,7 +37490,7 @@
         <v>77</v>
       </c>
       <c r="I90" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.925</v>
       </c>
       <c r="J90" s="107">
@@ -36628,7 +37502,7 @@
         <v>62</v>
       </c>
       <c r="C91" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.0666666666666669</v>
       </c>
       <c r="D91" s="107">
@@ -36639,7 +37513,7 @@
         <v>78</v>
       </c>
       <c r="I91" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.95</v>
       </c>
     </row>
@@ -36648,7 +37522,7 @@
         <v>63</v>
       </c>
       <c r="C92" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.1</v>
       </c>
       <c r="D92" s="107">
@@ -36658,7 +37532,7 @@
         <v>79</v>
       </c>
       <c r="I92" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.9750000000000001</v>
       </c>
       <c r="J92" s="107">
@@ -36670,14 +37544,14 @@
         <v>64</v>
       </c>
       <c r="C93" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.1333333333333333</v>
       </c>
       <c r="H93" s="51">
         <v>80</v>
       </c>
       <c r="I93" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="J93" s="107">
@@ -36692,7 +37566,7 @@
         <v>65</v>
       </c>
       <c r="C94" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="D94" s="107">
@@ -36702,7 +37576,7 @@
         <v>81</v>
       </c>
       <c r="I94" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.0249999999999999</v>
       </c>
     </row>
@@ -36711,7 +37585,7 @@
         <v>66</v>
       </c>
       <c r="C95" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="D95" s="107">
@@ -36724,7 +37598,7 @@
         <v>82</v>
       </c>
       <c r="I95" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="J95" s="107">
@@ -36736,14 +37610,14 @@
         <v>67</v>
       </c>
       <c r="C96" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.2333333333333334</v>
       </c>
       <c r="H96" s="51">
         <v>83</v>
       </c>
       <c r="I96" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.0750000000000002</v>
       </c>
       <c r="J96" s="107">
@@ -36755,14 +37629,14 @@
         <v>68</v>
       </c>
       <c r="C97" s="107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.2666666666666666</v>
       </c>
       <c r="H97" s="51">
         <v>84</v>
       </c>
       <c r="I97" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.1</v>
       </c>
       <c r="J97" s="107">
@@ -36774,7 +37648,7 @@
         <v>69</v>
       </c>
       <c r="C98" s="107">
-        <f t="shared" ref="C98:C129" si="7">B98/D$33</f>
+        <f t="shared" ref="C98:C129" si="10">B98/D$33</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="D98" s="107">
@@ -36785,7 +37659,7 @@
         <v>85</v>
       </c>
       <c r="I98" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.125</v>
       </c>
       <c r="J98" s="107">
@@ -36797,7 +37671,7 @@
         <v>70</v>
       </c>
       <c r="C99" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="E99" s="104"/>
@@ -36805,7 +37679,7 @@
         <v>86</v>
       </c>
       <c r="I99" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.15</v>
       </c>
     </row>
@@ -36814,7 +37688,7 @@
         <v>71</v>
       </c>
       <c r="C100" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.3666666666666667</v>
       </c>
       <c r="D100" s="104"/>
@@ -36824,7 +37698,7 @@
         <v>87</v>
       </c>
       <c r="I100" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.1749999999999998</v>
       </c>
       <c r="J100" s="107">
@@ -36836,7 +37710,7 @@
         <v>72</v>
       </c>
       <c r="C101" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.4</v>
       </c>
       <c r="D101" s="104"/>
@@ -36846,7 +37720,7 @@
         <v>88</v>
       </c>
       <c r="I101" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="J101" s="107">
@@ -36858,7 +37732,7 @@
         <v>73</v>
       </c>
       <c r="C102" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.4333333333333331</v>
       </c>
       <c r="D102" s="104"/>
@@ -36868,7 +37742,7 @@
         <v>89</v>
       </c>
       <c r="I102" s="107">
-        <f t="shared" ref="I102:I132" si="8">H102/J$32</f>
+        <f t="shared" ref="I102:I132" si="11">H102/J$32</f>
         <v>2.2250000000000001</v>
       </c>
     </row>
@@ -36877,7 +37751,7 @@
         <v>74</v>
       </c>
       <c r="C103" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="D103" s="107">
@@ -36889,7 +37763,7 @@
         <v>90</v>
       </c>
       <c r="I103" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.25</v>
       </c>
     </row>
@@ -36898,7 +37772,7 @@
         <v>75</v>
       </c>
       <c r="C104" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="D104" s="104"/>
@@ -36908,7 +37782,7 @@
         <v>91</v>
       </c>
       <c r="I104" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.2749999999999999</v>
       </c>
       <c r="J104" s="107">
@@ -36920,7 +37794,7 @@
         <v>76</v>
       </c>
       <c r="C105" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.5333333333333332</v>
       </c>
       <c r="D105" s="104"/>
@@ -36930,7 +37804,7 @@
         <v>92</v>
       </c>
       <c r="I105" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="J105" s="107">
@@ -36942,7 +37816,7 @@
         <v>77</v>
       </c>
       <c r="C106" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.5666666666666669</v>
       </c>
       <c r="D106" s="104"/>
@@ -36952,7 +37826,7 @@
         <v>93</v>
       </c>
       <c r="I106" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.3250000000000002</v>
       </c>
     </row>
@@ -36961,7 +37835,7 @@
         <v>78</v>
       </c>
       <c r="C107" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.6</v>
       </c>
       <c r="D107" s="104"/>
@@ -36971,7 +37845,7 @@
         <v>94</v>
       </c>
       <c r="I107" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.35</v>
       </c>
     </row>
@@ -36980,7 +37854,7 @@
         <v>79</v>
       </c>
       <c r="C108" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.6333333333333333</v>
       </c>
       <c r="D108" s="104"/>
@@ -36990,7 +37864,7 @@
         <v>95</v>
       </c>
       <c r="I108" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.375</v>
       </c>
     </row>
@@ -36999,7 +37873,7 @@
         <v>80</v>
       </c>
       <c r="C109" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="D109" s="104"/>
@@ -37009,7 +37883,7 @@
         <v>96</v>
       </c>
       <c r="I109" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
     </row>
@@ -37018,14 +37892,14 @@
         <v>81</v>
       </c>
       <c r="C110" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.7</v>
       </c>
       <c r="H110" s="51">
         <v>97</v>
       </c>
       <c r="I110" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.4249999999999998</v>
       </c>
     </row>
@@ -37034,14 +37908,14 @@
         <v>82</v>
       </c>
       <c r="C111" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.7333333333333334</v>
       </c>
       <c r="H111" s="51">
         <v>98</v>
       </c>
       <c r="I111" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -37050,14 +37924,14 @@
         <v>83</v>
       </c>
       <c r="C112" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.7666666666666666</v>
       </c>
       <c r="H112" s="51">
         <v>99</v>
       </c>
       <c r="I112" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.4750000000000001</v>
       </c>
     </row>
@@ -37066,14 +37940,14 @@
         <v>84</v>
       </c>
       <c r="C113" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.8</v>
       </c>
       <c r="H113" s="51">
         <v>100</v>
       </c>
       <c r="I113" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
     </row>
@@ -37082,14 +37956,14 @@
         <v>85</v>
       </c>
       <c r="C114" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="H114" s="51">
         <v>101</v>
       </c>
       <c r="I114" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.5249999999999999</v>
       </c>
     </row>
@@ -37098,14 +37972,14 @@
         <v>86</v>
       </c>
       <c r="C115" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.8666666666666667</v>
       </c>
       <c r="H115" s="51">
         <v>102</v>
       </c>
       <c r="I115" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.5499999999999998</v>
       </c>
     </row>
@@ -37114,14 +37988,14 @@
         <v>87</v>
       </c>
       <c r="C116" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.9</v>
       </c>
       <c r="H116" s="51">
         <v>103</v>
       </c>
       <c r="I116" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.5750000000000002</v>
       </c>
     </row>
@@ -37130,14 +38004,14 @@
         <v>88</v>
       </c>
       <c r="C117" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.9333333333333331</v>
       </c>
       <c r="H117" s="51">
         <v>104</v>
       </c>
       <c r="I117" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.6</v>
       </c>
     </row>
@@ -37146,14 +38020,14 @@
         <v>89</v>
       </c>
       <c r="C118" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.9666666666666668</v>
       </c>
       <c r="H118" s="51">
         <v>105</v>
       </c>
       <c r="I118" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.625</v>
       </c>
     </row>
@@ -37162,14 +38036,14 @@
         <v>90</v>
       </c>
       <c r="C119" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H119" s="51">
         <v>106</v>
       </c>
       <c r="I119" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.65</v>
       </c>
     </row>
@@ -37178,14 +38052,14 @@
         <v>91</v>
       </c>
       <c r="C120" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.0333333333333332</v>
       </c>
       <c r="H120" s="51">
         <v>107</v>
       </c>
       <c r="I120" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.6749999999999998</v>
       </c>
     </row>
@@ -37194,14 +38068,14 @@
         <v>92</v>
       </c>
       <c r="C121" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.0666666666666669</v>
       </c>
       <c r="H121" s="51">
         <v>108</v>
       </c>
       <c r="I121" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.7</v>
       </c>
     </row>
@@ -37210,14 +38084,14 @@
         <v>93</v>
       </c>
       <c r="C122" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.1</v>
       </c>
       <c r="H122" s="51">
         <v>109</v>
       </c>
       <c r="I122" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.7250000000000001</v>
       </c>
     </row>
@@ -37226,14 +38100,14 @@
         <v>94</v>
       </c>
       <c r="C123" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.1333333333333333</v>
       </c>
       <c r="H123" s="51">
         <v>110</v>
       </c>
       <c r="I123" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.75</v>
       </c>
     </row>
@@ -37242,14 +38116,14 @@
         <v>95</v>
       </c>
       <c r="C124" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="H124" s="51">
         <v>111</v>
       </c>
       <c r="I124" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.7749999999999999</v>
       </c>
     </row>
@@ -37258,14 +38132,14 @@
         <v>96</v>
       </c>
       <c r="C125" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.2</v>
       </c>
       <c r="H125" s="51">
         <v>112</v>
       </c>
       <c r="I125" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.8</v>
       </c>
     </row>
@@ -37274,14 +38148,14 @@
         <v>97</v>
       </c>
       <c r="C126" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.2333333333333334</v>
       </c>
       <c r="H126" s="51">
         <v>113</v>
       </c>
       <c r="I126" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.8250000000000002</v>
       </c>
     </row>
@@ -37290,14 +38164,14 @@
         <v>98</v>
       </c>
       <c r="C127" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.2666666666666666</v>
       </c>
       <c r="H127" s="51">
         <v>114</v>
       </c>
       <c r="I127" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.85</v>
       </c>
     </row>
@@ -37306,14 +38180,14 @@
         <v>99</v>
       </c>
       <c r="C128" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.3</v>
       </c>
       <c r="H128" s="51">
         <v>115</v>
       </c>
       <c r="I128" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.875</v>
       </c>
     </row>
@@ -37322,14 +38196,14 @@
         <v>100</v>
       </c>
       <c r="C129" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="H129" s="51">
         <v>116</v>
       </c>
       <c r="I129" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.9</v>
       </c>
     </row>
@@ -37338,7 +38212,7 @@
         <v>117</v>
       </c>
       <c r="I130" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.9249999999999998</v>
       </c>
     </row>
@@ -37347,7 +38221,7 @@
         <v>118</v>
       </c>
       <c r="I131" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.95</v>
       </c>
     </row>
@@ -37356,7 +38230,7 @@
         <v>119</v>
       </c>
       <c r="I132" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.9750000000000001</v>
       </c>
     </row>
@@ -37422,9 +38296,68 @@
     <sortCondition ref="D4:D23"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="W4:Z12 AD4:AE12 AA4:AC4">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{811ED4DF-090A-491B-8517-E26BCD08A1AE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4:AC12">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3DEFEFA2-256B-453E-B5A1-41D4ABA999D1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{811ED4DF-090A-491B-8517-E26BCD08A1AE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>W4:Z12 AD4:AE12 AA4:AC4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3DEFEFA2-256B-453E-B5A1-41D4ABA999D1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AA4:AC12</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -37432,7 +38365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D0F9BD-4379-4405-B793-B04BABC99C18}">
   <dimension ref="C1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="B20" workbookViewId="0">
+    <sheetView topLeftCell="B5" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
